--- a/kai/btb/kai-warband_orks_n_squigs_n_goblins_n_boyz.xlsx
+++ b/kai/btb/kai-warband_orks_n_squigs_n_goblins_n_boyz.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>Kai</t>
   </si>
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="J20" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1197,21 +1197,1013 @@
     <col min="19" max="19" width="11.42578125" customWidth="1"/>
     <col min="20" max="20" width="23.85546875" customWidth="1"/>
     <col min="21" max="21" width="26" customWidth="1"/>
-    <col min="22" max="23" width="7.42578125" customWidth="1"/>
-    <col min="24" max="25" width="12.42578125" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" customWidth="1"/>
     <col min="26" max="26" width="18.28515625" customWidth="1"/>
     <col min="27" max="27" width="5.7109375" customWidth="1"/>
     <col min="28" max="28" width="6.85546875" customWidth="1"/>
     <col min="29" max="29" width="6.7109375" customWidth="1"/>
     <col min="30" max="30" width="55.85546875" customWidth="1"/>
     <col min="31" max="31" width="10.7109375" customWidth="1"/>
-    <col min="32" max="33" width="7.42578125" customWidth="1"/>
+    <col min="32" max="32" width="7.42578125" customWidth="1"/>
+    <col min="33" max="33" width="7.42578125" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
     <col min="35" max="35" width="23.85546875" customWidth="1"/>
-    <col min="36" max="1025" width="10.7109375" customWidth="1"/>
+    <col min="36" max="36" width="10.7109375" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" customWidth="1"/>
+    <col min="38" max="38" width="10.7109375" customWidth="1"/>
+    <col min="39" max="39" width="10.7109375" customWidth="1"/>
+    <col min="40" max="40" width="10.7109375" customWidth="1"/>
+    <col min="41" max="41" width="10.7109375" customWidth="1"/>
+    <col min="42" max="42" width="10.7109375" customWidth="1"/>
+    <col min="43" max="43" width="10.7109375" customWidth="1"/>
+    <col min="44" max="44" width="10.7109375" customWidth="1"/>
+    <col min="45" max="45" width="10.7109375" customWidth="1"/>
+    <col min="46" max="46" width="10.7109375" customWidth="1"/>
+    <col min="47" max="47" width="10.7109375" customWidth="1"/>
+    <col min="48" max="48" width="10.7109375" customWidth="1"/>
+    <col min="49" max="49" width="10.7109375" customWidth="1"/>
+    <col min="50" max="50" width="10.7109375" customWidth="1"/>
+    <col min="51" max="51" width="10.7109375" customWidth="1"/>
+    <col min="52" max="52" width="10.7109375" customWidth="1"/>
+    <col min="53" max="53" width="10.7109375" customWidth="1"/>
+    <col min="54" max="54" width="10.7109375" customWidth="1"/>
+    <col min="55" max="55" width="10.7109375" customWidth="1"/>
+    <col min="56" max="56" width="10.7109375" customWidth="1"/>
+    <col min="57" max="57" width="10.7109375" customWidth="1"/>
+    <col min="58" max="58" width="10.7109375" customWidth="1"/>
+    <col min="59" max="59" width="10.7109375" customWidth="1"/>
+    <col min="60" max="60" width="10.7109375" customWidth="1"/>
+    <col min="61" max="61" width="10.7109375" customWidth="1"/>
+    <col min="62" max="62" width="10.7109375" customWidth="1"/>
+    <col min="63" max="63" width="10.7109375" customWidth="1"/>
+    <col min="64" max="64" width="10.7109375" customWidth="1"/>
+    <col min="65" max="65" width="10.7109375" customWidth="1"/>
+    <col min="66" max="66" width="10.7109375" customWidth="1"/>
+    <col min="67" max="67" width="10.7109375" customWidth="1"/>
+    <col min="68" max="68" width="10.7109375" customWidth="1"/>
+    <col min="69" max="69" width="10.7109375" customWidth="1"/>
+    <col min="70" max="70" width="10.7109375" customWidth="1"/>
+    <col min="71" max="71" width="10.7109375" customWidth="1"/>
+    <col min="72" max="72" width="10.7109375" customWidth="1"/>
+    <col min="73" max="73" width="10.7109375" customWidth="1"/>
+    <col min="74" max="74" width="10.7109375" customWidth="1"/>
+    <col min="75" max="75" width="10.7109375" customWidth="1"/>
+    <col min="76" max="76" width="10.7109375" customWidth="1"/>
+    <col min="77" max="77" width="10.7109375" customWidth="1"/>
+    <col min="78" max="78" width="10.7109375" customWidth="1"/>
+    <col min="79" max="79" width="10.7109375" customWidth="1"/>
+    <col min="80" max="80" width="10.7109375" customWidth="1"/>
+    <col min="81" max="81" width="10.7109375" customWidth="1"/>
+    <col min="82" max="82" width="10.7109375" customWidth="1"/>
+    <col min="83" max="83" width="10.7109375" customWidth="1"/>
+    <col min="84" max="84" width="10.7109375" customWidth="1"/>
+    <col min="85" max="85" width="10.7109375" customWidth="1"/>
+    <col min="86" max="86" width="10.7109375" customWidth="1"/>
+    <col min="87" max="87" width="10.7109375" customWidth="1"/>
+    <col min="88" max="88" width="10.7109375" customWidth="1"/>
+    <col min="89" max="89" width="10.7109375" customWidth="1"/>
+    <col min="90" max="90" width="10.7109375" customWidth="1"/>
+    <col min="91" max="91" width="10.7109375" customWidth="1"/>
+    <col min="92" max="92" width="10.7109375" customWidth="1"/>
+    <col min="93" max="93" width="10.7109375" customWidth="1"/>
+    <col min="94" max="94" width="10.7109375" customWidth="1"/>
+    <col min="95" max="95" width="10.7109375" customWidth="1"/>
+    <col min="96" max="96" width="10.7109375" customWidth="1"/>
+    <col min="97" max="97" width="10.7109375" customWidth="1"/>
+    <col min="98" max="98" width="10.7109375" customWidth="1"/>
+    <col min="99" max="99" width="10.7109375" customWidth="1"/>
+    <col min="100" max="100" width="10.7109375" customWidth="1"/>
+    <col min="101" max="101" width="10.7109375" customWidth="1"/>
+    <col min="102" max="102" width="10.7109375" customWidth="1"/>
+    <col min="103" max="103" width="10.7109375" customWidth="1"/>
+    <col min="104" max="104" width="10.7109375" customWidth="1"/>
+    <col min="105" max="105" width="10.7109375" customWidth="1"/>
+    <col min="106" max="106" width="10.7109375" customWidth="1"/>
+    <col min="107" max="107" width="10.7109375" customWidth="1"/>
+    <col min="108" max="108" width="10.7109375" customWidth="1"/>
+    <col min="109" max="109" width="10.7109375" customWidth="1"/>
+    <col min="110" max="110" width="10.7109375" customWidth="1"/>
+    <col min="111" max="111" width="10.7109375" customWidth="1"/>
+    <col min="112" max="112" width="10.7109375" customWidth="1"/>
+    <col min="113" max="113" width="10.7109375" customWidth="1"/>
+    <col min="114" max="114" width="10.7109375" customWidth="1"/>
+    <col min="115" max="115" width="10.7109375" customWidth="1"/>
+    <col min="116" max="116" width="10.7109375" customWidth="1"/>
+    <col min="117" max="117" width="10.7109375" customWidth="1"/>
+    <col min="118" max="118" width="10.7109375" customWidth="1"/>
+    <col min="119" max="119" width="10.7109375" customWidth="1"/>
+    <col min="120" max="120" width="10.7109375" customWidth="1"/>
+    <col min="121" max="121" width="10.7109375" customWidth="1"/>
+    <col min="122" max="122" width="10.7109375" customWidth="1"/>
+    <col min="123" max="123" width="10.7109375" customWidth="1"/>
+    <col min="124" max="124" width="10.7109375" customWidth="1"/>
+    <col min="125" max="125" width="10.7109375" customWidth="1"/>
+    <col min="126" max="126" width="10.7109375" customWidth="1"/>
+    <col min="127" max="127" width="10.7109375" customWidth="1"/>
+    <col min="128" max="128" width="10.7109375" customWidth="1"/>
+    <col min="129" max="129" width="10.7109375" customWidth="1"/>
+    <col min="130" max="130" width="10.7109375" customWidth="1"/>
+    <col min="131" max="131" width="10.7109375" customWidth="1"/>
+    <col min="132" max="132" width="10.7109375" customWidth="1"/>
+    <col min="133" max="133" width="10.7109375" customWidth="1"/>
+    <col min="134" max="134" width="10.7109375" customWidth="1"/>
+    <col min="135" max="135" width="10.7109375" customWidth="1"/>
+    <col min="136" max="136" width="10.7109375" customWidth="1"/>
+    <col min="137" max="137" width="10.7109375" customWidth="1"/>
+    <col min="138" max="138" width="10.7109375" customWidth="1"/>
+    <col min="139" max="139" width="10.7109375" customWidth="1"/>
+    <col min="140" max="140" width="10.7109375" customWidth="1"/>
+    <col min="141" max="141" width="10.7109375" customWidth="1"/>
+    <col min="142" max="142" width="10.7109375" customWidth="1"/>
+    <col min="143" max="143" width="10.7109375" customWidth="1"/>
+    <col min="144" max="144" width="10.7109375" customWidth="1"/>
+    <col min="145" max="145" width="10.7109375" customWidth="1"/>
+    <col min="146" max="146" width="10.7109375" customWidth="1"/>
+    <col min="147" max="147" width="10.7109375" customWidth="1"/>
+    <col min="148" max="148" width="10.7109375" customWidth="1"/>
+    <col min="149" max="149" width="10.7109375" customWidth="1"/>
+    <col min="150" max="150" width="10.7109375" customWidth="1"/>
+    <col min="151" max="151" width="10.7109375" customWidth="1"/>
+    <col min="152" max="152" width="10.7109375" customWidth="1"/>
+    <col min="153" max="153" width="10.7109375" customWidth="1"/>
+    <col min="154" max="154" width="10.7109375" customWidth="1"/>
+    <col min="155" max="155" width="10.7109375" customWidth="1"/>
+    <col min="156" max="156" width="10.7109375" customWidth="1"/>
+    <col min="157" max="157" width="10.7109375" customWidth="1"/>
+    <col min="158" max="158" width="10.7109375" customWidth="1"/>
+    <col min="159" max="159" width="10.7109375" customWidth="1"/>
+    <col min="160" max="160" width="10.7109375" customWidth="1"/>
+    <col min="161" max="161" width="10.7109375" customWidth="1"/>
+    <col min="162" max="162" width="10.7109375" customWidth="1"/>
+    <col min="163" max="163" width="10.7109375" customWidth="1"/>
+    <col min="164" max="164" width="10.7109375" customWidth="1"/>
+    <col min="165" max="165" width="10.7109375" customWidth="1"/>
+    <col min="166" max="166" width="10.7109375" customWidth="1"/>
+    <col min="167" max="167" width="10.7109375" customWidth="1"/>
+    <col min="168" max="168" width="10.7109375" customWidth="1"/>
+    <col min="169" max="169" width="10.7109375" customWidth="1"/>
+    <col min="170" max="170" width="10.7109375" customWidth="1"/>
+    <col min="171" max="171" width="10.7109375" customWidth="1"/>
+    <col min="172" max="172" width="10.7109375" customWidth="1"/>
+    <col min="173" max="173" width="10.7109375" customWidth="1"/>
+    <col min="174" max="174" width="10.7109375" customWidth="1"/>
+    <col min="175" max="175" width="10.7109375" customWidth="1"/>
+    <col min="176" max="176" width="10.7109375" customWidth="1"/>
+    <col min="177" max="177" width="10.7109375" customWidth="1"/>
+    <col min="178" max="178" width="10.7109375" customWidth="1"/>
+    <col min="179" max="179" width="10.7109375" customWidth="1"/>
+    <col min="180" max="180" width="10.7109375" customWidth="1"/>
+    <col min="181" max="181" width="10.7109375" customWidth="1"/>
+    <col min="182" max="182" width="10.7109375" customWidth="1"/>
+    <col min="183" max="183" width="10.7109375" customWidth="1"/>
+    <col min="184" max="184" width="10.7109375" customWidth="1"/>
+    <col min="185" max="185" width="10.7109375" customWidth="1"/>
+    <col min="186" max="186" width="10.7109375" customWidth="1"/>
+    <col min="187" max="187" width="10.7109375" customWidth="1"/>
+    <col min="188" max="188" width="10.7109375" customWidth="1"/>
+    <col min="189" max="189" width="10.7109375" customWidth="1"/>
+    <col min="190" max="190" width="10.7109375" customWidth="1"/>
+    <col min="191" max="191" width="10.7109375" customWidth="1"/>
+    <col min="192" max="192" width="10.7109375" customWidth="1"/>
+    <col min="193" max="193" width="10.7109375" customWidth="1"/>
+    <col min="194" max="194" width="10.7109375" customWidth="1"/>
+    <col min="195" max="195" width="10.7109375" customWidth="1"/>
+    <col min="196" max="196" width="10.7109375" customWidth="1"/>
+    <col min="197" max="197" width="10.7109375" customWidth="1"/>
+    <col min="198" max="198" width="10.7109375" customWidth="1"/>
+    <col min="199" max="199" width="10.7109375" customWidth="1"/>
+    <col min="200" max="200" width="10.7109375" customWidth="1"/>
+    <col min="201" max="201" width="10.7109375" customWidth="1"/>
+    <col min="202" max="202" width="10.7109375" customWidth="1"/>
+    <col min="203" max="203" width="10.7109375" customWidth="1"/>
+    <col min="204" max="204" width="10.7109375" customWidth="1"/>
+    <col min="205" max="205" width="10.7109375" customWidth="1"/>
+    <col min="206" max="206" width="10.7109375" customWidth="1"/>
+    <col min="207" max="207" width="10.7109375" customWidth="1"/>
+    <col min="208" max="208" width="10.7109375" customWidth="1"/>
+    <col min="209" max="209" width="10.7109375" customWidth="1"/>
+    <col min="210" max="210" width="10.7109375" customWidth="1"/>
+    <col min="211" max="211" width="10.7109375" customWidth="1"/>
+    <col min="212" max="212" width="10.7109375" customWidth="1"/>
+    <col min="213" max="213" width="10.7109375" customWidth="1"/>
+    <col min="214" max="214" width="10.7109375" customWidth="1"/>
+    <col min="215" max="215" width="10.7109375" customWidth="1"/>
+    <col min="216" max="216" width="10.7109375" customWidth="1"/>
+    <col min="217" max="217" width="10.7109375" customWidth="1"/>
+    <col min="218" max="218" width="10.7109375" customWidth="1"/>
+    <col min="219" max="219" width="10.7109375" customWidth="1"/>
+    <col min="220" max="220" width="10.7109375" customWidth="1"/>
+    <col min="221" max="221" width="10.7109375" customWidth="1"/>
+    <col min="222" max="222" width="10.7109375" customWidth="1"/>
+    <col min="223" max="223" width="10.7109375" customWidth="1"/>
+    <col min="224" max="224" width="10.7109375" customWidth="1"/>
+    <col min="225" max="225" width="10.7109375" customWidth="1"/>
+    <col min="226" max="226" width="10.7109375" customWidth="1"/>
+    <col min="227" max="227" width="10.7109375" customWidth="1"/>
+    <col min="228" max="228" width="10.7109375" customWidth="1"/>
+    <col min="229" max="229" width="10.7109375" customWidth="1"/>
+    <col min="230" max="230" width="10.7109375" customWidth="1"/>
+    <col min="231" max="231" width="10.7109375" customWidth="1"/>
+    <col min="232" max="232" width="10.7109375" customWidth="1"/>
+    <col min="233" max="233" width="10.7109375" customWidth="1"/>
+    <col min="234" max="234" width="10.7109375" customWidth="1"/>
+    <col min="235" max="235" width="10.7109375" customWidth="1"/>
+    <col min="236" max="236" width="10.7109375" customWidth="1"/>
+    <col min="237" max="237" width="10.7109375" customWidth="1"/>
+    <col min="238" max="238" width="10.7109375" customWidth="1"/>
+    <col min="239" max="239" width="10.7109375" customWidth="1"/>
+    <col min="240" max="240" width="10.7109375" customWidth="1"/>
+    <col min="241" max="241" width="10.7109375" customWidth="1"/>
+    <col min="242" max="242" width="10.7109375" customWidth="1"/>
+    <col min="243" max="243" width="10.7109375" customWidth="1"/>
+    <col min="244" max="244" width="10.7109375" customWidth="1"/>
+    <col min="245" max="245" width="10.7109375" customWidth="1"/>
+    <col min="246" max="246" width="10.7109375" customWidth="1"/>
+    <col min="247" max="247" width="10.7109375" customWidth="1"/>
+    <col min="248" max="248" width="10.7109375" customWidth="1"/>
+    <col min="249" max="249" width="10.7109375" customWidth="1"/>
+    <col min="250" max="250" width="10.7109375" customWidth="1"/>
+    <col min="251" max="251" width="10.7109375" customWidth="1"/>
+    <col min="252" max="252" width="10.7109375" customWidth="1"/>
+    <col min="253" max="253" width="10.7109375" customWidth="1"/>
+    <col min="254" max="254" width="10.7109375" customWidth="1"/>
+    <col min="255" max="255" width="10.7109375" customWidth="1"/>
+    <col min="256" max="256" width="10.7109375" customWidth="1"/>
+    <col min="257" max="257" width="10.7109375" customWidth="1"/>
+    <col min="258" max="258" width="10.7109375" customWidth="1"/>
+    <col min="259" max="259" width="10.7109375" customWidth="1"/>
+    <col min="260" max="260" width="10.7109375" customWidth="1"/>
+    <col min="261" max="261" width="10.7109375" customWidth="1"/>
+    <col min="262" max="262" width="10.7109375" customWidth="1"/>
+    <col min="263" max="263" width="10.7109375" customWidth="1"/>
+    <col min="264" max="264" width="10.7109375" customWidth="1"/>
+    <col min="265" max="265" width="10.7109375" customWidth="1"/>
+    <col min="266" max="266" width="10.7109375" customWidth="1"/>
+    <col min="267" max="267" width="10.7109375" customWidth="1"/>
+    <col min="268" max="268" width="10.7109375" customWidth="1"/>
+    <col min="269" max="269" width="10.7109375" customWidth="1"/>
+    <col min="270" max="270" width="10.7109375" customWidth="1"/>
+    <col min="271" max="271" width="10.7109375" customWidth="1"/>
+    <col min="272" max="272" width="10.7109375" customWidth="1"/>
+    <col min="273" max="273" width="10.7109375" customWidth="1"/>
+    <col min="274" max="274" width="10.7109375" customWidth="1"/>
+    <col min="275" max="275" width="10.7109375" customWidth="1"/>
+    <col min="276" max="276" width="10.7109375" customWidth="1"/>
+    <col min="277" max="277" width="10.7109375" customWidth="1"/>
+    <col min="278" max="278" width="10.7109375" customWidth="1"/>
+    <col min="279" max="279" width="10.7109375" customWidth="1"/>
+    <col min="280" max="280" width="10.7109375" customWidth="1"/>
+    <col min="281" max="281" width="10.7109375" customWidth="1"/>
+    <col min="282" max="282" width="10.7109375" customWidth="1"/>
+    <col min="283" max="283" width="10.7109375" customWidth="1"/>
+    <col min="284" max="284" width="10.7109375" customWidth="1"/>
+    <col min="285" max="285" width="10.7109375" customWidth="1"/>
+    <col min="286" max="286" width="10.7109375" customWidth="1"/>
+    <col min="287" max="287" width="10.7109375" customWidth="1"/>
+    <col min="288" max="288" width="10.7109375" customWidth="1"/>
+    <col min="289" max="289" width="10.7109375" customWidth="1"/>
+    <col min="290" max="290" width="10.7109375" customWidth="1"/>
+    <col min="291" max="291" width="10.7109375" customWidth="1"/>
+    <col min="292" max="292" width="10.7109375" customWidth="1"/>
+    <col min="293" max="293" width="10.7109375" customWidth="1"/>
+    <col min="294" max="294" width="10.7109375" customWidth="1"/>
+    <col min="295" max="295" width="10.7109375" customWidth="1"/>
+    <col min="296" max="296" width="10.7109375" customWidth="1"/>
+    <col min="297" max="297" width="10.7109375" customWidth="1"/>
+    <col min="298" max="298" width="10.7109375" customWidth="1"/>
+    <col min="299" max="299" width="10.7109375" customWidth="1"/>
+    <col min="300" max="300" width="10.7109375" customWidth="1"/>
+    <col min="301" max="301" width="10.7109375" customWidth="1"/>
+    <col min="302" max="302" width="10.7109375" customWidth="1"/>
+    <col min="303" max="303" width="10.7109375" customWidth="1"/>
+    <col min="304" max="304" width="10.7109375" customWidth="1"/>
+    <col min="305" max="305" width="10.7109375" customWidth="1"/>
+    <col min="306" max="306" width="10.7109375" customWidth="1"/>
+    <col min="307" max="307" width="10.7109375" customWidth="1"/>
+    <col min="308" max="308" width="10.7109375" customWidth="1"/>
+    <col min="309" max="309" width="10.7109375" customWidth="1"/>
+    <col min="310" max="310" width="10.7109375" customWidth="1"/>
+    <col min="311" max="311" width="10.7109375" customWidth="1"/>
+    <col min="312" max="312" width="10.7109375" customWidth="1"/>
+    <col min="313" max="313" width="10.7109375" customWidth="1"/>
+    <col min="314" max="314" width="10.7109375" customWidth="1"/>
+    <col min="315" max="315" width="10.7109375" customWidth="1"/>
+    <col min="316" max="316" width="10.7109375" customWidth="1"/>
+    <col min="317" max="317" width="10.7109375" customWidth="1"/>
+    <col min="318" max="318" width="10.7109375" customWidth="1"/>
+    <col min="319" max="319" width="10.7109375" customWidth="1"/>
+    <col min="320" max="320" width="10.7109375" customWidth="1"/>
+    <col min="321" max="321" width="10.7109375" customWidth="1"/>
+    <col min="322" max="322" width="10.7109375" customWidth="1"/>
+    <col min="323" max="323" width="10.7109375" customWidth="1"/>
+    <col min="324" max="324" width="10.7109375" customWidth="1"/>
+    <col min="325" max="325" width="10.7109375" customWidth="1"/>
+    <col min="326" max="326" width="10.7109375" customWidth="1"/>
+    <col min="327" max="327" width="10.7109375" customWidth="1"/>
+    <col min="328" max="328" width="10.7109375" customWidth="1"/>
+    <col min="329" max="329" width="10.7109375" customWidth="1"/>
+    <col min="330" max="330" width="10.7109375" customWidth="1"/>
+    <col min="331" max="331" width="10.7109375" customWidth="1"/>
+    <col min="332" max="332" width="10.7109375" customWidth="1"/>
+    <col min="333" max="333" width="10.7109375" customWidth="1"/>
+    <col min="334" max="334" width="10.7109375" customWidth="1"/>
+    <col min="335" max="335" width="10.7109375" customWidth="1"/>
+    <col min="336" max="336" width="10.7109375" customWidth="1"/>
+    <col min="337" max="337" width="10.7109375" customWidth="1"/>
+    <col min="338" max="338" width="10.7109375" customWidth="1"/>
+    <col min="339" max="339" width="10.7109375" customWidth="1"/>
+    <col min="340" max="340" width="10.7109375" customWidth="1"/>
+    <col min="341" max="341" width="10.7109375" customWidth="1"/>
+    <col min="342" max="342" width="10.7109375" customWidth="1"/>
+    <col min="343" max="343" width="10.7109375" customWidth="1"/>
+    <col min="344" max="344" width="10.7109375" customWidth="1"/>
+    <col min="345" max="345" width="10.7109375" customWidth="1"/>
+    <col min="346" max="346" width="10.7109375" customWidth="1"/>
+    <col min="347" max="347" width="10.7109375" customWidth="1"/>
+    <col min="348" max="348" width="10.7109375" customWidth="1"/>
+    <col min="349" max="349" width="10.7109375" customWidth="1"/>
+    <col min="350" max="350" width="10.7109375" customWidth="1"/>
+    <col min="351" max="351" width="10.7109375" customWidth="1"/>
+    <col min="352" max="352" width="10.7109375" customWidth="1"/>
+    <col min="353" max="353" width="10.7109375" customWidth="1"/>
+    <col min="354" max="354" width="10.7109375" customWidth="1"/>
+    <col min="355" max="355" width="10.7109375" customWidth="1"/>
+    <col min="356" max="356" width="10.7109375" customWidth="1"/>
+    <col min="357" max="357" width="10.7109375" customWidth="1"/>
+    <col min="358" max="358" width="10.7109375" customWidth="1"/>
+    <col min="359" max="359" width="10.7109375" customWidth="1"/>
+    <col min="360" max="360" width="10.7109375" customWidth="1"/>
+    <col min="361" max="361" width="10.7109375" customWidth="1"/>
+    <col min="362" max="362" width="10.7109375" customWidth="1"/>
+    <col min="363" max="363" width="10.7109375" customWidth="1"/>
+    <col min="364" max="364" width="10.7109375" customWidth="1"/>
+    <col min="365" max="365" width="10.7109375" customWidth="1"/>
+    <col min="366" max="366" width="10.7109375" customWidth="1"/>
+    <col min="367" max="367" width="10.7109375" customWidth="1"/>
+    <col min="368" max="368" width="10.7109375" customWidth="1"/>
+    <col min="369" max="369" width="10.7109375" customWidth="1"/>
+    <col min="370" max="370" width="10.7109375" customWidth="1"/>
+    <col min="371" max="371" width="10.7109375" customWidth="1"/>
+    <col min="372" max="372" width="10.7109375" customWidth="1"/>
+    <col min="373" max="373" width="10.7109375" customWidth="1"/>
+    <col min="374" max="374" width="10.7109375" customWidth="1"/>
+    <col min="375" max="375" width="10.7109375" customWidth="1"/>
+    <col min="376" max="376" width="10.7109375" customWidth="1"/>
+    <col min="377" max="377" width="10.7109375" customWidth="1"/>
+    <col min="378" max="378" width="10.7109375" customWidth="1"/>
+    <col min="379" max="379" width="10.7109375" customWidth="1"/>
+    <col min="380" max="380" width="10.7109375" customWidth="1"/>
+    <col min="381" max="381" width="10.7109375" customWidth="1"/>
+    <col min="382" max="382" width="10.7109375" customWidth="1"/>
+    <col min="383" max="383" width="10.7109375" customWidth="1"/>
+    <col min="384" max="384" width="10.7109375" customWidth="1"/>
+    <col min="385" max="385" width="10.7109375" customWidth="1"/>
+    <col min="386" max="386" width="10.7109375" customWidth="1"/>
+    <col min="387" max="387" width="10.7109375" customWidth="1"/>
+    <col min="388" max="388" width="10.7109375" customWidth="1"/>
+    <col min="389" max="389" width="10.7109375" customWidth="1"/>
+    <col min="390" max="390" width="10.7109375" customWidth="1"/>
+    <col min="391" max="391" width="10.7109375" customWidth="1"/>
+    <col min="392" max="392" width="10.7109375" customWidth="1"/>
+    <col min="393" max="393" width="10.7109375" customWidth="1"/>
+    <col min="394" max="394" width="10.7109375" customWidth="1"/>
+    <col min="395" max="395" width="10.7109375" customWidth="1"/>
+    <col min="396" max="396" width="10.7109375" customWidth="1"/>
+    <col min="397" max="397" width="10.7109375" customWidth="1"/>
+    <col min="398" max="398" width="10.7109375" customWidth="1"/>
+    <col min="399" max="399" width="10.7109375" customWidth="1"/>
+    <col min="400" max="400" width="10.7109375" customWidth="1"/>
+    <col min="401" max="401" width="10.7109375" customWidth="1"/>
+    <col min="402" max="402" width="10.7109375" customWidth="1"/>
+    <col min="403" max="403" width="10.7109375" customWidth="1"/>
+    <col min="404" max="404" width="10.7109375" customWidth="1"/>
+    <col min="405" max="405" width="10.7109375" customWidth="1"/>
+    <col min="406" max="406" width="10.7109375" customWidth="1"/>
+    <col min="407" max="407" width="10.7109375" customWidth="1"/>
+    <col min="408" max="408" width="10.7109375" customWidth="1"/>
+    <col min="409" max="409" width="10.7109375" customWidth="1"/>
+    <col min="410" max="410" width="10.7109375" customWidth="1"/>
+    <col min="411" max="411" width="10.7109375" customWidth="1"/>
+    <col min="412" max="412" width="10.7109375" customWidth="1"/>
+    <col min="413" max="413" width="10.7109375" customWidth="1"/>
+    <col min="414" max="414" width="10.7109375" customWidth="1"/>
+    <col min="415" max="415" width="10.7109375" customWidth="1"/>
+    <col min="416" max="416" width="10.7109375" customWidth="1"/>
+    <col min="417" max="417" width="10.7109375" customWidth="1"/>
+    <col min="418" max="418" width="10.7109375" customWidth="1"/>
+    <col min="419" max="419" width="10.7109375" customWidth="1"/>
+    <col min="420" max="420" width="10.7109375" customWidth="1"/>
+    <col min="421" max="421" width="10.7109375" customWidth="1"/>
+    <col min="422" max="422" width="10.7109375" customWidth="1"/>
+    <col min="423" max="423" width="10.7109375" customWidth="1"/>
+    <col min="424" max="424" width="10.7109375" customWidth="1"/>
+    <col min="425" max="425" width="10.7109375" customWidth="1"/>
+    <col min="426" max="426" width="10.7109375" customWidth="1"/>
+    <col min="427" max="427" width="10.7109375" customWidth="1"/>
+    <col min="428" max="428" width="10.7109375" customWidth="1"/>
+    <col min="429" max="429" width="10.7109375" customWidth="1"/>
+    <col min="430" max="430" width="10.7109375" customWidth="1"/>
+    <col min="431" max="431" width="10.7109375" customWidth="1"/>
+    <col min="432" max="432" width="10.7109375" customWidth="1"/>
+    <col min="433" max="433" width="10.7109375" customWidth="1"/>
+    <col min="434" max="434" width="10.7109375" customWidth="1"/>
+    <col min="435" max="435" width="10.7109375" customWidth="1"/>
+    <col min="436" max="436" width="10.7109375" customWidth="1"/>
+    <col min="437" max="437" width="10.7109375" customWidth="1"/>
+    <col min="438" max="438" width="10.7109375" customWidth="1"/>
+    <col min="439" max="439" width="10.7109375" customWidth="1"/>
+    <col min="440" max="440" width="10.7109375" customWidth="1"/>
+    <col min="441" max="441" width="10.7109375" customWidth="1"/>
+    <col min="442" max="442" width="10.7109375" customWidth="1"/>
+    <col min="443" max="443" width="10.7109375" customWidth="1"/>
+    <col min="444" max="444" width="10.7109375" customWidth="1"/>
+    <col min="445" max="445" width="10.7109375" customWidth="1"/>
+    <col min="446" max="446" width="10.7109375" customWidth="1"/>
+    <col min="447" max="447" width="10.7109375" customWidth="1"/>
+    <col min="448" max="448" width="10.7109375" customWidth="1"/>
+    <col min="449" max="449" width="10.7109375" customWidth="1"/>
+    <col min="450" max="450" width="10.7109375" customWidth="1"/>
+    <col min="451" max="451" width="10.7109375" customWidth="1"/>
+    <col min="452" max="452" width="10.7109375" customWidth="1"/>
+    <col min="453" max="453" width="10.7109375" customWidth="1"/>
+    <col min="454" max="454" width="10.7109375" customWidth="1"/>
+    <col min="455" max="455" width="10.7109375" customWidth="1"/>
+    <col min="456" max="456" width="10.7109375" customWidth="1"/>
+    <col min="457" max="457" width="10.7109375" customWidth="1"/>
+    <col min="458" max="458" width="10.7109375" customWidth="1"/>
+    <col min="459" max="459" width="10.7109375" customWidth="1"/>
+    <col min="460" max="460" width="10.7109375" customWidth="1"/>
+    <col min="461" max="461" width="10.7109375" customWidth="1"/>
+    <col min="462" max="462" width="10.7109375" customWidth="1"/>
+    <col min="463" max="463" width="10.7109375" customWidth="1"/>
+    <col min="464" max="464" width="10.7109375" customWidth="1"/>
+    <col min="465" max="465" width="10.7109375" customWidth="1"/>
+    <col min="466" max="466" width="10.7109375" customWidth="1"/>
+    <col min="467" max="467" width="10.7109375" customWidth="1"/>
+    <col min="468" max="468" width="10.7109375" customWidth="1"/>
+    <col min="469" max="469" width="10.7109375" customWidth="1"/>
+    <col min="470" max="470" width="10.7109375" customWidth="1"/>
+    <col min="471" max="471" width="10.7109375" customWidth="1"/>
+    <col min="472" max="472" width="10.7109375" customWidth="1"/>
+    <col min="473" max="473" width="10.7109375" customWidth="1"/>
+    <col min="474" max="474" width="10.7109375" customWidth="1"/>
+    <col min="475" max="475" width="10.7109375" customWidth="1"/>
+    <col min="476" max="476" width="10.7109375" customWidth="1"/>
+    <col min="477" max="477" width="10.7109375" customWidth="1"/>
+    <col min="478" max="478" width="10.7109375" customWidth="1"/>
+    <col min="479" max="479" width="10.7109375" customWidth="1"/>
+    <col min="480" max="480" width="10.7109375" customWidth="1"/>
+    <col min="481" max="481" width="10.7109375" customWidth="1"/>
+    <col min="482" max="482" width="10.7109375" customWidth="1"/>
+    <col min="483" max="483" width="10.7109375" customWidth="1"/>
+    <col min="484" max="484" width="10.7109375" customWidth="1"/>
+    <col min="485" max="485" width="10.7109375" customWidth="1"/>
+    <col min="486" max="486" width="10.7109375" customWidth="1"/>
+    <col min="487" max="487" width="10.7109375" customWidth="1"/>
+    <col min="488" max="488" width="10.7109375" customWidth="1"/>
+    <col min="489" max="489" width="10.7109375" customWidth="1"/>
+    <col min="490" max="490" width="10.7109375" customWidth="1"/>
+    <col min="491" max="491" width="10.7109375" customWidth="1"/>
+    <col min="492" max="492" width="10.7109375" customWidth="1"/>
+    <col min="493" max="493" width="10.7109375" customWidth="1"/>
+    <col min="494" max="494" width="10.7109375" customWidth="1"/>
+    <col min="495" max="495" width="10.7109375" customWidth="1"/>
+    <col min="496" max="496" width="10.7109375" customWidth="1"/>
+    <col min="497" max="497" width="10.7109375" customWidth="1"/>
+    <col min="498" max="498" width="10.7109375" customWidth="1"/>
+    <col min="499" max="499" width="10.7109375" customWidth="1"/>
+    <col min="500" max="500" width="10.7109375" customWidth="1"/>
+    <col min="501" max="501" width="10.7109375" customWidth="1"/>
+    <col min="502" max="502" width="10.7109375" customWidth="1"/>
+    <col min="503" max="503" width="10.7109375" customWidth="1"/>
+    <col min="504" max="504" width="10.7109375" customWidth="1"/>
+    <col min="505" max="505" width="10.7109375" customWidth="1"/>
+    <col min="506" max="506" width="10.7109375" customWidth="1"/>
+    <col min="507" max="507" width="10.7109375" customWidth="1"/>
+    <col min="508" max="508" width="10.7109375" customWidth="1"/>
+    <col min="509" max="509" width="10.7109375" customWidth="1"/>
+    <col min="510" max="510" width="10.7109375" customWidth="1"/>
+    <col min="511" max="511" width="10.7109375" customWidth="1"/>
+    <col min="512" max="512" width="10.7109375" customWidth="1"/>
+    <col min="513" max="513" width="10.7109375" customWidth="1"/>
+    <col min="514" max="514" width="10.7109375" customWidth="1"/>
+    <col min="515" max="515" width="10.7109375" customWidth="1"/>
+    <col min="516" max="516" width="10.7109375" customWidth="1"/>
+    <col min="517" max="517" width="10.7109375" customWidth="1"/>
+    <col min="518" max="518" width="10.7109375" customWidth="1"/>
+    <col min="519" max="519" width="10.7109375" customWidth="1"/>
+    <col min="520" max="520" width="10.7109375" customWidth="1"/>
+    <col min="521" max="521" width="10.7109375" customWidth="1"/>
+    <col min="522" max="522" width="10.7109375" customWidth="1"/>
+    <col min="523" max="523" width="10.7109375" customWidth="1"/>
+    <col min="524" max="524" width="10.7109375" customWidth="1"/>
+    <col min="525" max="525" width="10.7109375" customWidth="1"/>
+    <col min="526" max="526" width="10.7109375" customWidth="1"/>
+    <col min="527" max="527" width="10.7109375" customWidth="1"/>
+    <col min="528" max="528" width="10.7109375" customWidth="1"/>
+    <col min="529" max="529" width="10.7109375" customWidth="1"/>
+    <col min="530" max="530" width="10.7109375" customWidth="1"/>
+    <col min="531" max="531" width="10.7109375" customWidth="1"/>
+    <col min="532" max="532" width="10.7109375" customWidth="1"/>
+    <col min="533" max="533" width="10.7109375" customWidth="1"/>
+    <col min="534" max="534" width="10.7109375" customWidth="1"/>
+    <col min="535" max="535" width="10.7109375" customWidth="1"/>
+    <col min="536" max="536" width="10.7109375" customWidth="1"/>
+    <col min="537" max="537" width="10.7109375" customWidth="1"/>
+    <col min="538" max="538" width="10.7109375" customWidth="1"/>
+    <col min="539" max="539" width="10.7109375" customWidth="1"/>
+    <col min="540" max="540" width="10.7109375" customWidth="1"/>
+    <col min="541" max="541" width="10.7109375" customWidth="1"/>
+    <col min="542" max="542" width="10.7109375" customWidth="1"/>
+    <col min="543" max="543" width="10.7109375" customWidth="1"/>
+    <col min="544" max="544" width="10.7109375" customWidth="1"/>
+    <col min="545" max="545" width="10.7109375" customWidth="1"/>
+    <col min="546" max="546" width="10.7109375" customWidth="1"/>
+    <col min="547" max="547" width="10.7109375" customWidth="1"/>
+    <col min="548" max="548" width="10.7109375" customWidth="1"/>
+    <col min="549" max="549" width="10.7109375" customWidth="1"/>
+    <col min="550" max="550" width="10.7109375" customWidth="1"/>
+    <col min="551" max="551" width="10.7109375" customWidth="1"/>
+    <col min="552" max="552" width="10.7109375" customWidth="1"/>
+    <col min="553" max="553" width="10.7109375" customWidth="1"/>
+    <col min="554" max="554" width="10.7109375" customWidth="1"/>
+    <col min="555" max="555" width="10.7109375" customWidth="1"/>
+    <col min="556" max="556" width="10.7109375" customWidth="1"/>
+    <col min="557" max="557" width="10.7109375" customWidth="1"/>
+    <col min="558" max="558" width="10.7109375" customWidth="1"/>
+    <col min="559" max="559" width="10.7109375" customWidth="1"/>
+    <col min="560" max="560" width="10.7109375" customWidth="1"/>
+    <col min="561" max="561" width="10.7109375" customWidth="1"/>
+    <col min="562" max="562" width="10.7109375" customWidth="1"/>
+    <col min="563" max="563" width="10.7109375" customWidth="1"/>
+    <col min="564" max="564" width="10.7109375" customWidth="1"/>
+    <col min="565" max="565" width="10.7109375" customWidth="1"/>
+    <col min="566" max="566" width="10.7109375" customWidth="1"/>
+    <col min="567" max="567" width="10.7109375" customWidth="1"/>
+    <col min="568" max="568" width="10.7109375" customWidth="1"/>
+    <col min="569" max="569" width="10.7109375" customWidth="1"/>
+    <col min="570" max="570" width="10.7109375" customWidth="1"/>
+    <col min="571" max="571" width="10.7109375" customWidth="1"/>
+    <col min="572" max="572" width="10.7109375" customWidth="1"/>
+    <col min="573" max="573" width="10.7109375" customWidth="1"/>
+    <col min="574" max="574" width="10.7109375" customWidth="1"/>
+    <col min="575" max="575" width="10.7109375" customWidth="1"/>
+    <col min="576" max="576" width="10.7109375" customWidth="1"/>
+    <col min="577" max="577" width="10.7109375" customWidth="1"/>
+    <col min="578" max="578" width="10.7109375" customWidth="1"/>
+    <col min="579" max="579" width="10.7109375" customWidth="1"/>
+    <col min="580" max="580" width="10.7109375" customWidth="1"/>
+    <col min="581" max="581" width="10.7109375" customWidth="1"/>
+    <col min="582" max="582" width="10.7109375" customWidth="1"/>
+    <col min="583" max="583" width="10.7109375" customWidth="1"/>
+    <col min="584" max="584" width="10.7109375" customWidth="1"/>
+    <col min="585" max="585" width="10.7109375" customWidth="1"/>
+    <col min="586" max="586" width="10.7109375" customWidth="1"/>
+    <col min="587" max="587" width="10.7109375" customWidth="1"/>
+    <col min="588" max="588" width="10.7109375" customWidth="1"/>
+    <col min="589" max="589" width="10.7109375" customWidth="1"/>
+    <col min="590" max="590" width="10.7109375" customWidth="1"/>
+    <col min="591" max="591" width="10.7109375" customWidth="1"/>
+    <col min="592" max="592" width="10.7109375" customWidth="1"/>
+    <col min="593" max="593" width="10.7109375" customWidth="1"/>
+    <col min="594" max="594" width="10.7109375" customWidth="1"/>
+    <col min="595" max="595" width="10.7109375" customWidth="1"/>
+    <col min="596" max="596" width="10.7109375" customWidth="1"/>
+    <col min="597" max="597" width="10.7109375" customWidth="1"/>
+    <col min="598" max="598" width="10.7109375" customWidth="1"/>
+    <col min="599" max="599" width="10.7109375" customWidth="1"/>
+    <col min="600" max="600" width="10.7109375" customWidth="1"/>
+    <col min="601" max="601" width="10.7109375" customWidth="1"/>
+    <col min="602" max="602" width="10.7109375" customWidth="1"/>
+    <col min="603" max="603" width="10.7109375" customWidth="1"/>
+    <col min="604" max="604" width="10.7109375" customWidth="1"/>
+    <col min="605" max="605" width="10.7109375" customWidth="1"/>
+    <col min="606" max="606" width="10.7109375" customWidth="1"/>
+    <col min="607" max="607" width="10.7109375" customWidth="1"/>
+    <col min="608" max="608" width="10.7109375" customWidth="1"/>
+    <col min="609" max="609" width="10.7109375" customWidth="1"/>
+    <col min="610" max="610" width="10.7109375" customWidth="1"/>
+    <col min="611" max="611" width="10.7109375" customWidth="1"/>
+    <col min="612" max="612" width="10.7109375" customWidth="1"/>
+    <col min="613" max="613" width="10.7109375" customWidth="1"/>
+    <col min="614" max="614" width="10.7109375" customWidth="1"/>
+    <col min="615" max="615" width="10.7109375" customWidth="1"/>
+    <col min="616" max="616" width="10.7109375" customWidth="1"/>
+    <col min="617" max="617" width="10.7109375" customWidth="1"/>
+    <col min="618" max="618" width="10.7109375" customWidth="1"/>
+    <col min="619" max="619" width="10.7109375" customWidth="1"/>
+    <col min="620" max="620" width="10.7109375" customWidth="1"/>
+    <col min="621" max="621" width="10.7109375" customWidth="1"/>
+    <col min="622" max="622" width="10.7109375" customWidth="1"/>
+    <col min="623" max="623" width="10.7109375" customWidth="1"/>
+    <col min="624" max="624" width="10.7109375" customWidth="1"/>
+    <col min="625" max="625" width="10.7109375" customWidth="1"/>
+    <col min="626" max="626" width="10.7109375" customWidth="1"/>
+    <col min="627" max="627" width="10.7109375" customWidth="1"/>
+    <col min="628" max="628" width="10.7109375" customWidth="1"/>
+    <col min="629" max="629" width="10.7109375" customWidth="1"/>
+    <col min="630" max="630" width="10.7109375" customWidth="1"/>
+    <col min="631" max="631" width="10.7109375" customWidth="1"/>
+    <col min="632" max="632" width="10.7109375" customWidth="1"/>
+    <col min="633" max="633" width="10.7109375" customWidth="1"/>
+    <col min="634" max="634" width="10.7109375" customWidth="1"/>
+    <col min="635" max="635" width="10.7109375" customWidth="1"/>
+    <col min="636" max="636" width="10.7109375" customWidth="1"/>
+    <col min="637" max="637" width="10.7109375" customWidth="1"/>
+    <col min="638" max="638" width="10.7109375" customWidth="1"/>
+    <col min="639" max="639" width="10.7109375" customWidth="1"/>
+    <col min="640" max="640" width="10.7109375" customWidth="1"/>
+    <col min="641" max="641" width="10.7109375" customWidth="1"/>
+    <col min="642" max="642" width="10.7109375" customWidth="1"/>
+    <col min="643" max="643" width="10.7109375" customWidth="1"/>
+    <col min="644" max="644" width="10.7109375" customWidth="1"/>
+    <col min="645" max="645" width="10.7109375" customWidth="1"/>
+    <col min="646" max="646" width="10.7109375" customWidth="1"/>
+    <col min="647" max="647" width="10.7109375" customWidth="1"/>
+    <col min="648" max="648" width="10.7109375" customWidth="1"/>
+    <col min="649" max="649" width="10.7109375" customWidth="1"/>
+    <col min="650" max="650" width="10.7109375" customWidth="1"/>
+    <col min="651" max="651" width="10.7109375" customWidth="1"/>
+    <col min="652" max="652" width="10.7109375" customWidth="1"/>
+    <col min="653" max="653" width="10.7109375" customWidth="1"/>
+    <col min="654" max="654" width="10.7109375" customWidth="1"/>
+    <col min="655" max="655" width="10.7109375" customWidth="1"/>
+    <col min="656" max="656" width="10.7109375" customWidth="1"/>
+    <col min="657" max="657" width="10.7109375" customWidth="1"/>
+    <col min="658" max="658" width="10.7109375" customWidth="1"/>
+    <col min="659" max="659" width="10.7109375" customWidth="1"/>
+    <col min="660" max="660" width="10.7109375" customWidth="1"/>
+    <col min="661" max="661" width="10.7109375" customWidth="1"/>
+    <col min="662" max="662" width="10.7109375" customWidth="1"/>
+    <col min="663" max="663" width="10.7109375" customWidth="1"/>
+    <col min="664" max="664" width="10.7109375" customWidth="1"/>
+    <col min="665" max="665" width="10.7109375" customWidth="1"/>
+    <col min="666" max="666" width="10.7109375" customWidth="1"/>
+    <col min="667" max="667" width="10.7109375" customWidth="1"/>
+    <col min="668" max="668" width="10.7109375" customWidth="1"/>
+    <col min="669" max="669" width="10.7109375" customWidth="1"/>
+    <col min="670" max="670" width="10.7109375" customWidth="1"/>
+    <col min="671" max="671" width="10.7109375" customWidth="1"/>
+    <col min="672" max="672" width="10.7109375" customWidth="1"/>
+    <col min="673" max="673" width="10.7109375" customWidth="1"/>
+    <col min="674" max="674" width="10.7109375" customWidth="1"/>
+    <col min="675" max="675" width="10.7109375" customWidth="1"/>
+    <col min="676" max="676" width="10.7109375" customWidth="1"/>
+    <col min="677" max="677" width="10.7109375" customWidth="1"/>
+    <col min="678" max="678" width="10.7109375" customWidth="1"/>
+    <col min="679" max="679" width="10.7109375" customWidth="1"/>
+    <col min="680" max="680" width="10.7109375" customWidth="1"/>
+    <col min="681" max="681" width="10.7109375" customWidth="1"/>
+    <col min="682" max="682" width="10.7109375" customWidth="1"/>
+    <col min="683" max="683" width="10.7109375" customWidth="1"/>
+    <col min="684" max="684" width="10.7109375" customWidth="1"/>
+    <col min="685" max="685" width="10.7109375" customWidth="1"/>
+    <col min="686" max="686" width="10.7109375" customWidth="1"/>
+    <col min="687" max="687" width="10.7109375" customWidth="1"/>
+    <col min="688" max="688" width="10.7109375" customWidth="1"/>
+    <col min="689" max="689" width="10.7109375" customWidth="1"/>
+    <col min="690" max="690" width="10.7109375" customWidth="1"/>
+    <col min="691" max="691" width="10.7109375" customWidth="1"/>
+    <col min="692" max="692" width="10.7109375" customWidth="1"/>
+    <col min="693" max="693" width="10.7109375" customWidth="1"/>
+    <col min="694" max="694" width="10.7109375" customWidth="1"/>
+    <col min="695" max="695" width="10.7109375" customWidth="1"/>
+    <col min="696" max="696" width="10.7109375" customWidth="1"/>
+    <col min="697" max="697" width="10.7109375" customWidth="1"/>
+    <col min="698" max="698" width="10.7109375" customWidth="1"/>
+    <col min="699" max="699" width="10.7109375" customWidth="1"/>
+    <col min="700" max="700" width="10.7109375" customWidth="1"/>
+    <col min="701" max="701" width="10.7109375" customWidth="1"/>
+    <col min="702" max="702" width="10.7109375" customWidth="1"/>
+    <col min="703" max="703" width="10.7109375" customWidth="1"/>
+    <col min="704" max="704" width="10.7109375" customWidth="1"/>
+    <col min="705" max="705" width="10.7109375" customWidth="1"/>
+    <col min="706" max="706" width="10.7109375" customWidth="1"/>
+    <col min="707" max="707" width="10.7109375" customWidth="1"/>
+    <col min="708" max="708" width="10.7109375" customWidth="1"/>
+    <col min="709" max="709" width="10.7109375" customWidth="1"/>
+    <col min="710" max="710" width="10.7109375" customWidth="1"/>
+    <col min="711" max="711" width="10.7109375" customWidth="1"/>
+    <col min="712" max="712" width="10.7109375" customWidth="1"/>
+    <col min="713" max="713" width="10.7109375" customWidth="1"/>
+    <col min="714" max="714" width="10.7109375" customWidth="1"/>
+    <col min="715" max="715" width="10.7109375" customWidth="1"/>
+    <col min="716" max="716" width="10.7109375" customWidth="1"/>
+    <col min="717" max="717" width="10.7109375" customWidth="1"/>
+    <col min="718" max="718" width="10.7109375" customWidth="1"/>
+    <col min="719" max="719" width="10.7109375" customWidth="1"/>
+    <col min="720" max="720" width="10.7109375" customWidth="1"/>
+    <col min="721" max="721" width="10.7109375" customWidth="1"/>
+    <col min="722" max="722" width="10.7109375" customWidth="1"/>
+    <col min="723" max="723" width="10.7109375" customWidth="1"/>
+    <col min="724" max="724" width="10.7109375" customWidth="1"/>
+    <col min="725" max="725" width="10.7109375" customWidth="1"/>
+    <col min="726" max="726" width="10.7109375" customWidth="1"/>
+    <col min="727" max="727" width="10.7109375" customWidth="1"/>
+    <col min="728" max="728" width="10.7109375" customWidth="1"/>
+    <col min="729" max="729" width="10.7109375" customWidth="1"/>
+    <col min="730" max="730" width="10.7109375" customWidth="1"/>
+    <col min="731" max="731" width="10.7109375" customWidth="1"/>
+    <col min="732" max="732" width="10.7109375" customWidth="1"/>
+    <col min="733" max="733" width="10.7109375" customWidth="1"/>
+    <col min="734" max="734" width="10.7109375" customWidth="1"/>
+    <col min="735" max="735" width="10.7109375" customWidth="1"/>
+    <col min="736" max="736" width="10.7109375" customWidth="1"/>
+    <col min="737" max="737" width="10.7109375" customWidth="1"/>
+    <col min="738" max="738" width="10.7109375" customWidth="1"/>
+    <col min="739" max="739" width="10.7109375" customWidth="1"/>
+    <col min="740" max="740" width="10.7109375" customWidth="1"/>
+    <col min="741" max="741" width="10.7109375" customWidth="1"/>
+    <col min="742" max="742" width="10.7109375" customWidth="1"/>
+    <col min="743" max="743" width="10.7109375" customWidth="1"/>
+    <col min="744" max="744" width="10.7109375" customWidth="1"/>
+    <col min="745" max="745" width="10.7109375" customWidth="1"/>
+    <col min="746" max="746" width="10.7109375" customWidth="1"/>
+    <col min="747" max="747" width="10.7109375" customWidth="1"/>
+    <col min="748" max="748" width="10.7109375" customWidth="1"/>
+    <col min="749" max="749" width="10.7109375" customWidth="1"/>
+    <col min="750" max="750" width="10.7109375" customWidth="1"/>
+    <col min="751" max="751" width="10.7109375" customWidth="1"/>
+    <col min="752" max="752" width="10.7109375" customWidth="1"/>
+    <col min="753" max="753" width="10.7109375" customWidth="1"/>
+    <col min="754" max="754" width="10.7109375" customWidth="1"/>
+    <col min="755" max="755" width="10.7109375" customWidth="1"/>
+    <col min="756" max="756" width="10.7109375" customWidth="1"/>
+    <col min="757" max="757" width="10.7109375" customWidth="1"/>
+    <col min="758" max="758" width="10.7109375" customWidth="1"/>
+    <col min="759" max="759" width="10.7109375" customWidth="1"/>
+    <col min="760" max="760" width="10.7109375" customWidth="1"/>
+    <col min="761" max="761" width="10.7109375" customWidth="1"/>
+    <col min="762" max="762" width="10.7109375" customWidth="1"/>
+    <col min="763" max="763" width="10.7109375" customWidth="1"/>
+    <col min="764" max="764" width="10.7109375" customWidth="1"/>
+    <col min="765" max="765" width="10.7109375" customWidth="1"/>
+    <col min="766" max="766" width="10.7109375" customWidth="1"/>
+    <col min="767" max="767" width="10.7109375" customWidth="1"/>
+    <col min="768" max="768" width="10.7109375" customWidth="1"/>
+    <col min="769" max="769" width="10.7109375" customWidth="1"/>
+    <col min="770" max="770" width="10.7109375" customWidth="1"/>
+    <col min="771" max="771" width="10.7109375" customWidth="1"/>
+    <col min="772" max="772" width="10.7109375" customWidth="1"/>
+    <col min="773" max="773" width="10.7109375" customWidth="1"/>
+    <col min="774" max="774" width="10.7109375" customWidth="1"/>
+    <col min="775" max="775" width="10.7109375" customWidth="1"/>
+    <col min="776" max="776" width="10.7109375" customWidth="1"/>
+    <col min="777" max="777" width="10.7109375" customWidth="1"/>
+    <col min="778" max="778" width="10.7109375" customWidth="1"/>
+    <col min="779" max="779" width="10.7109375" customWidth="1"/>
+    <col min="780" max="780" width="10.7109375" customWidth="1"/>
+    <col min="781" max="781" width="10.7109375" customWidth="1"/>
+    <col min="782" max="782" width="10.7109375" customWidth="1"/>
+    <col min="783" max="783" width="10.7109375" customWidth="1"/>
+    <col min="784" max="784" width="10.7109375" customWidth="1"/>
+    <col min="785" max="785" width="10.7109375" customWidth="1"/>
+    <col min="786" max="786" width="10.7109375" customWidth="1"/>
+    <col min="787" max="787" width="10.7109375" customWidth="1"/>
+    <col min="788" max="788" width="10.7109375" customWidth="1"/>
+    <col min="789" max="789" width="10.7109375" customWidth="1"/>
+    <col min="790" max="790" width="10.7109375" customWidth="1"/>
+    <col min="791" max="791" width="10.7109375" customWidth="1"/>
+    <col min="792" max="792" width="10.7109375" customWidth="1"/>
+    <col min="793" max="793" width="10.7109375" customWidth="1"/>
+    <col min="794" max="794" width="10.7109375" customWidth="1"/>
+    <col min="795" max="795" width="10.7109375" customWidth="1"/>
+    <col min="796" max="796" width="10.7109375" customWidth="1"/>
+    <col min="797" max="797" width="10.7109375" customWidth="1"/>
+    <col min="798" max="798" width="10.7109375" customWidth="1"/>
+    <col min="799" max="799" width="10.7109375" customWidth="1"/>
+    <col min="800" max="800" width="10.7109375" customWidth="1"/>
+    <col min="801" max="801" width="10.7109375" customWidth="1"/>
+    <col min="802" max="802" width="10.7109375" customWidth="1"/>
+    <col min="803" max="803" width="10.7109375" customWidth="1"/>
+    <col min="804" max="804" width="10.7109375" customWidth="1"/>
+    <col min="805" max="805" width="10.7109375" customWidth="1"/>
+    <col min="806" max="806" width="10.7109375" customWidth="1"/>
+    <col min="807" max="807" width="10.7109375" customWidth="1"/>
+    <col min="808" max="808" width="10.7109375" customWidth="1"/>
+    <col min="809" max="809" width="10.7109375" customWidth="1"/>
+    <col min="810" max="810" width="10.7109375" customWidth="1"/>
+    <col min="811" max="811" width="10.7109375" customWidth="1"/>
+    <col min="812" max="812" width="10.7109375" customWidth="1"/>
+    <col min="813" max="813" width="10.7109375" customWidth="1"/>
+    <col min="814" max="814" width="10.7109375" customWidth="1"/>
+    <col min="815" max="815" width="10.7109375" customWidth="1"/>
+    <col min="816" max="816" width="10.7109375" customWidth="1"/>
+    <col min="817" max="817" width="10.7109375" customWidth="1"/>
+    <col min="818" max="818" width="10.7109375" customWidth="1"/>
+    <col min="819" max="819" width="10.7109375" customWidth="1"/>
+    <col min="820" max="820" width="10.7109375" customWidth="1"/>
+    <col min="821" max="821" width="10.7109375" customWidth="1"/>
+    <col min="822" max="822" width="10.7109375" customWidth="1"/>
+    <col min="823" max="823" width="10.7109375" customWidth="1"/>
+    <col min="824" max="824" width="10.7109375" customWidth="1"/>
+    <col min="825" max="825" width="10.7109375" customWidth="1"/>
+    <col min="826" max="826" width="10.7109375" customWidth="1"/>
+    <col min="827" max="827" width="10.7109375" customWidth="1"/>
+    <col min="828" max="828" width="10.7109375" customWidth="1"/>
+    <col min="829" max="829" width="10.7109375" customWidth="1"/>
+    <col min="830" max="830" width="10.7109375" customWidth="1"/>
+    <col min="831" max="831" width="10.7109375" customWidth="1"/>
+    <col min="832" max="832" width="10.7109375" customWidth="1"/>
+    <col min="833" max="833" width="10.7109375" customWidth="1"/>
+    <col min="834" max="834" width="10.7109375" customWidth="1"/>
+    <col min="835" max="835" width="10.7109375" customWidth="1"/>
+    <col min="836" max="836" width="10.7109375" customWidth="1"/>
+    <col min="837" max="837" width="10.7109375" customWidth="1"/>
+    <col min="838" max="838" width="10.7109375" customWidth="1"/>
+    <col min="839" max="839" width="10.7109375" customWidth="1"/>
+    <col min="840" max="840" width="10.7109375" customWidth="1"/>
+    <col min="841" max="841" width="10.7109375" customWidth="1"/>
+    <col min="842" max="842" width="10.7109375" customWidth="1"/>
+    <col min="843" max="843" width="10.7109375" customWidth="1"/>
+    <col min="844" max="844" width="10.7109375" customWidth="1"/>
+    <col min="845" max="845" width="10.7109375" customWidth="1"/>
+    <col min="846" max="846" width="10.7109375" customWidth="1"/>
+    <col min="847" max="847" width="10.7109375" customWidth="1"/>
+    <col min="848" max="848" width="10.7109375" customWidth="1"/>
+    <col min="849" max="849" width="10.7109375" customWidth="1"/>
+    <col min="850" max="850" width="10.7109375" customWidth="1"/>
+    <col min="851" max="851" width="10.7109375" customWidth="1"/>
+    <col min="852" max="852" width="10.7109375" customWidth="1"/>
+    <col min="853" max="853" width="10.7109375" customWidth="1"/>
+    <col min="854" max="854" width="10.7109375" customWidth="1"/>
+    <col min="855" max="855" width="10.7109375" customWidth="1"/>
+    <col min="856" max="856" width="10.7109375" customWidth="1"/>
+    <col min="857" max="857" width="10.7109375" customWidth="1"/>
+    <col min="858" max="858" width="10.7109375" customWidth="1"/>
+    <col min="859" max="859" width="10.7109375" customWidth="1"/>
+    <col min="860" max="860" width="10.7109375" customWidth="1"/>
+    <col min="861" max="861" width="10.7109375" customWidth="1"/>
+    <col min="862" max="862" width="10.7109375" customWidth="1"/>
+    <col min="863" max="863" width="10.7109375" customWidth="1"/>
+    <col min="864" max="864" width="10.7109375" customWidth="1"/>
+    <col min="865" max="865" width="10.7109375" customWidth="1"/>
+    <col min="866" max="866" width="10.7109375" customWidth="1"/>
+    <col min="867" max="867" width="10.7109375" customWidth="1"/>
+    <col min="868" max="868" width="10.7109375" customWidth="1"/>
+    <col min="869" max="869" width="10.7109375" customWidth="1"/>
+    <col min="870" max="870" width="10.7109375" customWidth="1"/>
+    <col min="871" max="871" width="10.7109375" customWidth="1"/>
+    <col min="872" max="872" width="10.7109375" customWidth="1"/>
+    <col min="873" max="873" width="10.7109375" customWidth="1"/>
+    <col min="874" max="874" width="10.7109375" customWidth="1"/>
+    <col min="875" max="875" width="10.7109375" customWidth="1"/>
+    <col min="876" max="876" width="10.7109375" customWidth="1"/>
+    <col min="877" max="877" width="10.7109375" customWidth="1"/>
+    <col min="878" max="878" width="10.7109375" customWidth="1"/>
+    <col min="879" max="879" width="10.7109375" customWidth="1"/>
+    <col min="880" max="880" width="10.7109375" customWidth="1"/>
+    <col min="881" max="881" width="10.7109375" customWidth="1"/>
+    <col min="882" max="882" width="10.7109375" customWidth="1"/>
+    <col min="883" max="883" width="10.7109375" customWidth="1"/>
+    <col min="884" max="884" width="10.7109375" customWidth="1"/>
+    <col min="885" max="885" width="10.7109375" customWidth="1"/>
+    <col min="886" max="886" width="10.7109375" customWidth="1"/>
+    <col min="887" max="887" width="10.7109375" customWidth="1"/>
+    <col min="888" max="888" width="10.7109375" customWidth="1"/>
+    <col min="889" max="889" width="10.7109375" customWidth="1"/>
+    <col min="890" max="890" width="10.7109375" customWidth="1"/>
+    <col min="891" max="891" width="10.7109375" customWidth="1"/>
+    <col min="892" max="892" width="10.7109375" customWidth="1"/>
+    <col min="893" max="893" width="10.7109375" customWidth="1"/>
+    <col min="894" max="894" width="10.7109375" customWidth="1"/>
+    <col min="895" max="895" width="10.7109375" customWidth="1"/>
+    <col min="896" max="896" width="10.7109375" customWidth="1"/>
+    <col min="897" max="897" width="10.7109375" customWidth="1"/>
+    <col min="898" max="898" width="10.7109375" customWidth="1"/>
+    <col min="899" max="899" width="10.7109375" customWidth="1"/>
+    <col min="900" max="900" width="10.7109375" customWidth="1"/>
+    <col min="901" max="901" width="10.7109375" customWidth="1"/>
+    <col min="902" max="902" width="10.7109375" customWidth="1"/>
+    <col min="903" max="903" width="10.7109375" customWidth="1"/>
+    <col min="904" max="904" width="10.7109375" customWidth="1"/>
+    <col min="905" max="905" width="10.7109375" customWidth="1"/>
+    <col min="906" max="906" width="10.7109375" customWidth="1"/>
+    <col min="907" max="907" width="10.7109375" customWidth="1"/>
+    <col min="908" max="908" width="10.7109375" customWidth="1"/>
+    <col min="909" max="909" width="10.7109375" customWidth="1"/>
+    <col min="910" max="910" width="10.7109375" customWidth="1"/>
+    <col min="911" max="911" width="10.7109375" customWidth="1"/>
+    <col min="912" max="912" width="10.7109375" customWidth="1"/>
+    <col min="913" max="913" width="10.7109375" customWidth="1"/>
+    <col min="914" max="914" width="10.7109375" customWidth="1"/>
+    <col min="915" max="915" width="10.7109375" customWidth="1"/>
+    <col min="916" max="916" width="10.7109375" customWidth="1"/>
+    <col min="917" max="917" width="10.7109375" customWidth="1"/>
+    <col min="918" max="918" width="10.7109375" customWidth="1"/>
+    <col min="919" max="919" width="10.7109375" customWidth="1"/>
+    <col min="920" max="920" width="10.7109375" customWidth="1"/>
+    <col min="921" max="921" width="10.7109375" customWidth="1"/>
+    <col min="922" max="922" width="10.7109375" customWidth="1"/>
+    <col min="923" max="923" width="10.7109375" customWidth="1"/>
+    <col min="924" max="924" width="10.7109375" customWidth="1"/>
+    <col min="925" max="925" width="10.7109375" customWidth="1"/>
+    <col min="926" max="926" width="10.7109375" customWidth="1"/>
+    <col min="927" max="927" width="10.7109375" customWidth="1"/>
+    <col min="928" max="928" width="10.7109375" customWidth="1"/>
+    <col min="929" max="929" width="10.7109375" customWidth="1"/>
+    <col min="930" max="930" width="10.7109375" customWidth="1"/>
+    <col min="931" max="931" width="10.7109375" customWidth="1"/>
+    <col min="932" max="932" width="10.7109375" customWidth="1"/>
+    <col min="933" max="933" width="10.7109375" customWidth="1"/>
+    <col min="934" max="934" width="10.7109375" customWidth="1"/>
+    <col min="935" max="935" width="10.7109375" customWidth="1"/>
+    <col min="936" max="936" width="10.7109375" customWidth="1"/>
+    <col min="937" max="937" width="10.7109375" customWidth="1"/>
+    <col min="938" max="938" width="10.7109375" customWidth="1"/>
+    <col min="939" max="939" width="10.7109375" customWidth="1"/>
+    <col min="940" max="940" width="10.7109375" customWidth="1"/>
+    <col min="941" max="941" width="10.7109375" customWidth="1"/>
+    <col min="942" max="942" width="10.7109375" customWidth="1"/>
+    <col min="943" max="943" width="10.7109375" customWidth="1"/>
+    <col min="944" max="944" width="10.7109375" customWidth="1"/>
+    <col min="945" max="945" width="10.7109375" customWidth="1"/>
+    <col min="946" max="946" width="10.7109375" customWidth="1"/>
+    <col min="947" max="947" width="10.7109375" customWidth="1"/>
+    <col min="948" max="948" width="10.7109375" customWidth="1"/>
+    <col min="949" max="949" width="10.7109375" customWidth="1"/>
+    <col min="950" max="950" width="10.7109375" customWidth="1"/>
+    <col min="951" max="951" width="10.7109375" customWidth="1"/>
+    <col min="952" max="952" width="10.7109375" customWidth="1"/>
+    <col min="953" max="953" width="10.7109375" customWidth="1"/>
+    <col min="954" max="954" width="10.7109375" customWidth="1"/>
+    <col min="955" max="955" width="10.7109375" customWidth="1"/>
+    <col min="956" max="956" width="10.7109375" customWidth="1"/>
+    <col min="957" max="957" width="10.7109375" customWidth="1"/>
+    <col min="958" max="958" width="10.7109375" customWidth="1"/>
+    <col min="959" max="959" width="10.7109375" customWidth="1"/>
+    <col min="960" max="960" width="10.7109375" customWidth="1"/>
+    <col min="961" max="961" width="10.7109375" customWidth="1"/>
+    <col min="962" max="962" width="10.7109375" customWidth="1"/>
+    <col min="963" max="963" width="10.7109375" customWidth="1"/>
+    <col min="964" max="964" width="10.7109375" customWidth="1"/>
+    <col min="965" max="965" width="10.7109375" customWidth="1"/>
+    <col min="966" max="966" width="10.7109375" customWidth="1"/>
+    <col min="967" max="967" width="10.7109375" customWidth="1"/>
+    <col min="968" max="968" width="10.7109375" customWidth="1"/>
+    <col min="969" max="969" width="10.7109375" customWidth="1"/>
+    <col min="970" max="970" width="10.7109375" customWidth="1"/>
+    <col min="971" max="971" width="10.7109375" customWidth="1"/>
+    <col min="972" max="972" width="10.7109375" customWidth="1"/>
+    <col min="973" max="973" width="10.7109375" customWidth="1"/>
+    <col min="974" max="974" width="10.7109375" customWidth="1"/>
+    <col min="975" max="975" width="10.7109375" customWidth="1"/>
+    <col min="976" max="976" width="10.7109375" customWidth="1"/>
+    <col min="977" max="977" width="10.7109375" customWidth="1"/>
+    <col min="978" max="978" width="10.7109375" customWidth="1"/>
+    <col min="979" max="979" width="10.7109375" customWidth="1"/>
+    <col min="980" max="980" width="10.7109375" customWidth="1"/>
+    <col min="981" max="981" width="10.7109375" customWidth="1"/>
+    <col min="982" max="982" width="10.7109375" customWidth="1"/>
+    <col min="983" max="983" width="10.7109375" customWidth="1"/>
+    <col min="984" max="984" width="10.7109375" customWidth="1"/>
+    <col min="985" max="985" width="10.7109375" customWidth="1"/>
+    <col min="986" max="986" width="10.7109375" customWidth="1"/>
+    <col min="987" max="987" width="10.7109375" customWidth="1"/>
+    <col min="988" max="988" width="10.7109375" customWidth="1"/>
+    <col min="989" max="989" width="10.7109375" customWidth="1"/>
+    <col min="990" max="990" width="10.7109375" customWidth="1"/>
+    <col min="991" max="991" width="10.7109375" customWidth="1"/>
+    <col min="992" max="992" width="10.7109375" customWidth="1"/>
+    <col min="993" max="993" width="10.7109375" customWidth="1"/>
+    <col min="994" max="994" width="10.7109375" customWidth="1"/>
+    <col min="995" max="995" width="10.7109375" customWidth="1"/>
+    <col min="996" max="996" width="10.7109375" customWidth="1"/>
+    <col min="997" max="997" width="10.7109375" customWidth="1"/>
+    <col min="998" max="998" width="10.7109375" customWidth="1"/>
+    <col min="999" max="999" width="10.7109375" customWidth="1"/>
+    <col min="1000" max="1000" width="10.7109375" customWidth="1"/>
+    <col min="1001" max="1001" width="10.7109375" customWidth="1"/>
+    <col min="1002" max="1002" width="10.7109375" customWidth="1"/>
+    <col min="1003" max="1003" width="10.7109375" customWidth="1"/>
+    <col min="1004" max="1004" width="10.7109375" customWidth="1"/>
+    <col min="1005" max="1005" width="10.7109375" customWidth="1"/>
+    <col min="1006" max="1006" width="10.7109375" customWidth="1"/>
+    <col min="1007" max="1007" width="10.7109375" customWidth="1"/>
+    <col min="1008" max="1008" width="10.7109375" customWidth="1"/>
+    <col min="1009" max="1009" width="10.7109375" customWidth="1"/>
+    <col min="1010" max="1010" width="10.7109375" customWidth="1"/>
+    <col min="1011" max="1011" width="10.7109375" customWidth="1"/>
+    <col min="1012" max="1012" width="10.7109375" customWidth="1"/>
+    <col min="1013" max="1013" width="10.7109375" customWidth="1"/>
+    <col min="1014" max="1014" width="10.7109375" customWidth="1"/>
+    <col min="1015" max="1015" width="10.7109375" customWidth="1"/>
+    <col min="1016" max="1016" width="10.7109375" customWidth="1"/>
+    <col min="1017" max="1017" width="10.7109375" customWidth="1"/>
+    <col min="1018" max="1018" width="10.7109375" customWidth="1"/>
+    <col min="1019" max="1019" width="10.7109375" customWidth="1"/>
+    <col min="1020" max="1020" width="10.7109375" customWidth="1"/>
+    <col min="1021" max="1021" width="10.7109375" customWidth="1"/>
+    <col min="1022" max="1022" width="10.7109375" customWidth="1"/>
+    <col min="1023" max="1023" width="10.7109375" customWidth="1"/>
+    <col min="1024" max="1024" width="10.7109375" customWidth="1"/>
+    <col min="1025" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" ht="18">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +2216,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" ht="18">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1237,16 +2229,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="H4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="7">
         <f>5*E18+E11*F11+E12*F12+E13*F13+E14*F14+E15*F15+E16*F16+E17*F17+5+(D44*(F44-5))</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" ht="15" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
@@ -1261,44 +2253,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="10">
         <f>G18+P40+D44*E44</f>
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="12">
         <f>U40</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6">
         <f>U41</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6">
         <f>U42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="14">
         <f>C5-C6</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" s="15">
         <f>I3+(I6+I4)*I5</f>
-        <v>970</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="C10" s="16" t="s">
         <v>10</v>
       </c>
@@ -1321,7 +2313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1338,7 +2330,7 @@
         <v>20</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:G17" si="0">E11*D11</f>
+        <f>E11*D11</f>
         <v>80</v>
       </c>
       <c r="Q11" t="s">
@@ -1348,7 +2340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="B12" s="3"/>
       <c r="C12" t="s">
         <v>21</v>
@@ -1363,7 +2355,7 @@
         <v>10</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f>E12*D12</f>
         <v>40</v>
       </c>
       <c r="Q12" t="s">
@@ -1373,7 +2365,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="B13" s="3"/>
       <c r="C13" t="s">
         <v>24</v>
@@ -1388,11 +2380,11 @@
         <v>15</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f>E13*D13</f>
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
@@ -1409,11 +2401,11 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f>E14*D14</f>
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="B15" s="3"/>
       <c r="C15" t="s">
         <v>27</v>
@@ -1422,17 +2414,17 @@
         <v>15</v>
       </c>
       <c r="E15" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="17">
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+        <f>E15*D15</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="B16" s="3"/>
       <c r="C16" t="s">
         <v>28</v>
@@ -1447,11 +2439,11 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f>E16*D16</f>
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="B17" s="3"/>
       <c r="C17" s="11" t="s">
         <v>29</v>
@@ -1466,11 +2458,11 @@
         <v>0</v>
       </c>
       <c r="G17" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+        <f>E17*D17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="C18" s="20" t="s">
         <v>30</v>
       </c>
@@ -1480,10 +2472,10 @@
       </c>
       <c r="G18" s="15">
         <f>SUM(G11:G17)</f>
-        <v>435</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="B19" s="21"/>
       <c r="F19" s="9"/>
       <c r="I19" s="2" t="s">
@@ -1496,7 +2488,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="I20" s="2" t="s">
@@ -1514,7 +2506,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="C21" s="16" t="s">
         <v>34</v>
       </c>
@@ -1573,7 +2565,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="C22" t="s">
         <v>52</v>
       </c>
@@ -1597,8 +2589,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <f>E14</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1612,7 +2603,7 @@
       </c>
       <c r="P22">
         <f>SUM(Tabelle2[[#This Row],[leader]:[troll]])*Tabelle2[[#This Row],[gc/unit]]</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1629,10 +2620,10 @@
       </c>
       <c r="U22" s="24">
         <f>Tabelle2[[#This Row],[rating]]*SUM(Tabelle2[[#This Row],[leader]:[troll]])</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="C23" t="s">
         <v>56</v>
       </c>
@@ -1691,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="C24" t="s">
         <v>60</v>
       </c>
@@ -1750,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="C25" t="s">
         <v>62</v>
       </c>
@@ -1809,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="C26" t="s">
         <v>64</v>
       </c>
@@ -1868,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="C27" t="s">
         <v>67</v>
       </c>
@@ -1927,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="C28" t="s">
         <v>70</v>
       </c>
@@ -1984,7 +2975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" t="s">
         <v>71</v>
       </c>
@@ -2046,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" t="s">
         <v>75</v>
       </c>
@@ -2106,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="C31" t="s">
         <v>77</v>
       </c>
@@ -2162,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="C32" t="s">
         <v>78</v>
       </c>
@@ -2221,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="C33" t="s">
         <v>80</v>
       </c>
@@ -2281,7 +3272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="C34" t="s">
         <v>82</v>
       </c>
@@ -2338,7 +3329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="C35" t="s">
         <v>85</v>
       </c>
@@ -2397,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="C36" s="26" t="s">
         <v>87</v>
       </c>
@@ -2453,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="C37" t="s">
         <v>88</v>
       </c>
@@ -2511,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="C38" t="s">
         <v>91</v>
       </c>
@@ -2569,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="C39" s="26" t="s">
         <v>94</v>
       </c>
@@ -2628,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
@@ -2636,36 +3627,36 @@
       <c r="G40" s="26"/>
       <c r="H40" s="28"/>
       <c r="I40" s="29">
-        <f t="shared" ref="I40:O40" si="1">I22*$H22+I23*$H23+I24*$H24+I25*$H25+I26*$H26+I27*$H27+I28*$H28+I29*$H29+I30*$H30+I31*$H31+I32*$H32+I33*$H33+I34*$H34+I35*$H35+I36*$H36+I37*$H37+I38*$H38+I39*$H39</f>
+        <f>I22*$H22+I23*$H23+I24*$H24+I25*$H25+I26*$H26+I27*$H27+I28*$H28+I29*$H29+I30*$H30+I31*$H31+I32*$H32+I33*$H33+I34*$H34+I35*$H35+I36*$H36+I37*$H37+I38*$H38+I39*$H39</f>
         <v>2</v>
       </c>
       <c r="J40" s="29">
-        <f t="shared" si="1"/>
+        <f>J22*$H22+J23*$H23+J24*$H24+J25*$H25+J26*$H26+J27*$H27+J28*$H28+J29*$H29+J30*$H30+J31*$H31+J32*$H32+J33*$H33+J34*$H34+J35*$H35+J36*$H36+J37*$H37+J38*$H38+J39*$H39</f>
         <v>2</v>
       </c>
       <c r="K40" s="29">
-        <f t="shared" si="1"/>
+        <f>K22*$H22+K23*$H23+K24*$H24+K25*$H25+K26*$H26+K27*$H27+K28*$H28+K29*$H29+K30*$H30+K31*$H31+K32*$H32+K33*$H33+K34*$H34+K35*$H35+K36*$H36+K37*$H37+K38*$H38+K39*$H39</f>
         <v>9</v>
       </c>
       <c r="L40" s="29">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f>L22*$H22+L23*$H23+L24*$H24+L25*$H25+L26*$H26+L27*$H27+L28*$H28+L29*$H29+L30*$H30+L31*$H31+L32*$H32+L33*$H33+L34*$H34+L35*$H35+L36*$H36+L37*$H37+L38*$H38+L39*$H39</f>
+        <v>28</v>
       </c>
       <c r="M40" s="29">
-        <f t="shared" si="1"/>
+        <f>M22*$H22+M23*$H23+M24*$H24+M25*$H25+M26*$H26+M27*$H27+M28*$H28+M29*$H29+M30*$H30+M31*$H31+M32*$H32+M33*$H33+M34*$H34+M35*$H35+M36*$H36+M37*$H37+M38*$H38+M39*$H39</f>
         <v>0</v>
       </c>
       <c r="N40" s="29">
-        <f t="shared" si="1"/>
+        <f>N22*$H22+N23*$H23+N24*$H24+N25*$H25+N26*$H26+N27*$H27+N28*$H28+N29*$H29+N30*$H30+N31*$H31+N32*$H32+N33*$H33+N34*$H34+N35*$H35+N36*$H36+N37*$H37+N38*$H38+N39*$H39</f>
         <v>6</v>
       </c>
       <c r="O40" s="29">
-        <f t="shared" si="1"/>
+        <f>O22*$H22+O23*$H23+O24*$H24+O25*$H25+O26*$H26+O27*$H27+O28*$H28+O29*$H29+O30*$H30+O31*$H31+O32*$H32+O33*$H33+O34*$H34+O35*$H35+O36*$H36+O37*$H37+O38*$H38+O39*$H39</f>
         <v>0</v>
       </c>
       <c r="P40" s="15">
         <f>SUM(P22:P39)</f>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q40" s="26"/>
       <c r="R40" s="30">
@@ -2678,10 +3669,10 @@
       </c>
       <c r="U40" s="15">
         <f>SUM(Tabelle2[Warband Equip Rating])</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="F41" s="23"/>
       <c r="S41" s="24"/>
       <c r="T41" t="s">
@@ -2689,10 +3680,10 @@
       </c>
       <c r="U41">
         <f>SUM(U22:U36)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="F42" s="23"/>
       <c r="S42" s="24"/>
       <c r="T42" t="s">
@@ -2703,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="C43" s="26"/>
       <c r="D43" s="26" t="s">
         <v>141</v>
@@ -2728,12 +3719,12 @@
       <c r="R43" s="26"/>
       <c r="S43" s="31"/>
     </row>
-    <row r="44" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="C44" t="s">
         <v>99</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>15</v>
@@ -2928,15 +3919,1027 @@
     <col min="10" max="10" width="16.85546875" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="1025" width="11.5703125"/>
+    <col min="13" max="13" width="11.5703125"/>
+    <col min="14" max="14" width="11.5703125"/>
+    <col min="15" max="15" width="11.5703125"/>
+    <col min="16" max="16" width="11.5703125"/>
+    <col min="17" max="17" width="11.5703125"/>
+    <col min="18" max="18" width="11.5703125"/>
+    <col min="19" max="19" width="11.5703125"/>
+    <col min="20" max="20" width="11.5703125"/>
+    <col min="21" max="21" width="11.5703125"/>
+    <col min="22" max="22" width="11.5703125"/>
+    <col min="23" max="23" width="11.5703125"/>
+    <col min="24" max="24" width="11.5703125"/>
+    <col min="25" max="25" width="11.5703125"/>
+    <col min="26" max="26" width="11.5703125"/>
+    <col min="27" max="27" width="11.5703125"/>
+    <col min="28" max="28" width="11.5703125"/>
+    <col min="29" max="29" width="11.5703125"/>
+    <col min="30" max="30" width="11.5703125"/>
+    <col min="31" max="31" width="11.5703125"/>
+    <col min="32" max="32" width="11.5703125"/>
+    <col min="33" max="33" width="11.5703125"/>
+    <col min="34" max="34" width="11.5703125"/>
+    <col min="35" max="35" width="11.5703125"/>
+    <col min="36" max="36" width="11.5703125"/>
+    <col min="37" max="37" width="11.5703125"/>
+    <col min="38" max="38" width="11.5703125"/>
+    <col min="39" max="39" width="11.5703125"/>
+    <col min="40" max="40" width="11.5703125"/>
+    <col min="41" max="41" width="11.5703125"/>
+    <col min="42" max="42" width="11.5703125"/>
+    <col min="43" max="43" width="11.5703125"/>
+    <col min="44" max="44" width="11.5703125"/>
+    <col min="45" max="45" width="11.5703125"/>
+    <col min="46" max="46" width="11.5703125"/>
+    <col min="47" max="47" width="11.5703125"/>
+    <col min="48" max="48" width="11.5703125"/>
+    <col min="49" max="49" width="11.5703125"/>
+    <col min="50" max="50" width="11.5703125"/>
+    <col min="51" max="51" width="11.5703125"/>
+    <col min="52" max="52" width="11.5703125"/>
+    <col min="53" max="53" width="11.5703125"/>
+    <col min="54" max="54" width="11.5703125"/>
+    <col min="55" max="55" width="11.5703125"/>
+    <col min="56" max="56" width="11.5703125"/>
+    <col min="57" max="57" width="11.5703125"/>
+    <col min="58" max="58" width="11.5703125"/>
+    <col min="59" max="59" width="11.5703125"/>
+    <col min="60" max="60" width="11.5703125"/>
+    <col min="61" max="61" width="11.5703125"/>
+    <col min="62" max="62" width="11.5703125"/>
+    <col min="63" max="63" width="11.5703125"/>
+    <col min="64" max="64" width="11.5703125"/>
+    <col min="65" max="65" width="11.5703125"/>
+    <col min="66" max="66" width="11.5703125"/>
+    <col min="67" max="67" width="11.5703125"/>
+    <col min="68" max="68" width="11.5703125"/>
+    <col min="69" max="69" width="11.5703125"/>
+    <col min="70" max="70" width="11.5703125"/>
+    <col min="71" max="71" width="11.5703125"/>
+    <col min="72" max="72" width="11.5703125"/>
+    <col min="73" max="73" width="11.5703125"/>
+    <col min="74" max="74" width="11.5703125"/>
+    <col min="75" max="75" width="11.5703125"/>
+    <col min="76" max="76" width="11.5703125"/>
+    <col min="77" max="77" width="11.5703125"/>
+    <col min="78" max="78" width="11.5703125"/>
+    <col min="79" max="79" width="11.5703125"/>
+    <col min="80" max="80" width="11.5703125"/>
+    <col min="81" max="81" width="11.5703125"/>
+    <col min="82" max="82" width="11.5703125"/>
+    <col min="83" max="83" width="11.5703125"/>
+    <col min="84" max="84" width="11.5703125"/>
+    <col min="85" max="85" width="11.5703125"/>
+    <col min="86" max="86" width="11.5703125"/>
+    <col min="87" max="87" width="11.5703125"/>
+    <col min="88" max="88" width="11.5703125"/>
+    <col min="89" max="89" width="11.5703125"/>
+    <col min="90" max="90" width="11.5703125"/>
+    <col min="91" max="91" width="11.5703125"/>
+    <col min="92" max="92" width="11.5703125"/>
+    <col min="93" max="93" width="11.5703125"/>
+    <col min="94" max="94" width="11.5703125"/>
+    <col min="95" max="95" width="11.5703125"/>
+    <col min="96" max="96" width="11.5703125"/>
+    <col min="97" max="97" width="11.5703125"/>
+    <col min="98" max="98" width="11.5703125"/>
+    <col min="99" max="99" width="11.5703125"/>
+    <col min="100" max="100" width="11.5703125"/>
+    <col min="101" max="101" width="11.5703125"/>
+    <col min="102" max="102" width="11.5703125"/>
+    <col min="103" max="103" width="11.5703125"/>
+    <col min="104" max="104" width="11.5703125"/>
+    <col min="105" max="105" width="11.5703125"/>
+    <col min="106" max="106" width="11.5703125"/>
+    <col min="107" max="107" width="11.5703125"/>
+    <col min="108" max="108" width="11.5703125"/>
+    <col min="109" max="109" width="11.5703125"/>
+    <col min="110" max="110" width="11.5703125"/>
+    <col min="111" max="111" width="11.5703125"/>
+    <col min="112" max="112" width="11.5703125"/>
+    <col min="113" max="113" width="11.5703125"/>
+    <col min="114" max="114" width="11.5703125"/>
+    <col min="115" max="115" width="11.5703125"/>
+    <col min="116" max="116" width="11.5703125"/>
+    <col min="117" max="117" width="11.5703125"/>
+    <col min="118" max="118" width="11.5703125"/>
+    <col min="119" max="119" width="11.5703125"/>
+    <col min="120" max="120" width="11.5703125"/>
+    <col min="121" max="121" width="11.5703125"/>
+    <col min="122" max="122" width="11.5703125"/>
+    <col min="123" max="123" width="11.5703125"/>
+    <col min="124" max="124" width="11.5703125"/>
+    <col min="125" max="125" width="11.5703125"/>
+    <col min="126" max="126" width="11.5703125"/>
+    <col min="127" max="127" width="11.5703125"/>
+    <col min="128" max="128" width="11.5703125"/>
+    <col min="129" max="129" width="11.5703125"/>
+    <col min="130" max="130" width="11.5703125"/>
+    <col min="131" max="131" width="11.5703125"/>
+    <col min="132" max="132" width="11.5703125"/>
+    <col min="133" max="133" width="11.5703125"/>
+    <col min="134" max="134" width="11.5703125"/>
+    <col min="135" max="135" width="11.5703125"/>
+    <col min="136" max="136" width="11.5703125"/>
+    <col min="137" max="137" width="11.5703125"/>
+    <col min="138" max="138" width="11.5703125"/>
+    <col min="139" max="139" width="11.5703125"/>
+    <col min="140" max="140" width="11.5703125"/>
+    <col min="141" max="141" width="11.5703125"/>
+    <col min="142" max="142" width="11.5703125"/>
+    <col min="143" max="143" width="11.5703125"/>
+    <col min="144" max="144" width="11.5703125"/>
+    <col min="145" max="145" width="11.5703125"/>
+    <col min="146" max="146" width="11.5703125"/>
+    <col min="147" max="147" width="11.5703125"/>
+    <col min="148" max="148" width="11.5703125"/>
+    <col min="149" max="149" width="11.5703125"/>
+    <col min="150" max="150" width="11.5703125"/>
+    <col min="151" max="151" width="11.5703125"/>
+    <col min="152" max="152" width="11.5703125"/>
+    <col min="153" max="153" width="11.5703125"/>
+    <col min="154" max="154" width="11.5703125"/>
+    <col min="155" max="155" width="11.5703125"/>
+    <col min="156" max="156" width="11.5703125"/>
+    <col min="157" max="157" width="11.5703125"/>
+    <col min="158" max="158" width="11.5703125"/>
+    <col min="159" max="159" width="11.5703125"/>
+    <col min="160" max="160" width="11.5703125"/>
+    <col min="161" max="161" width="11.5703125"/>
+    <col min="162" max="162" width="11.5703125"/>
+    <col min="163" max="163" width="11.5703125"/>
+    <col min="164" max="164" width="11.5703125"/>
+    <col min="165" max="165" width="11.5703125"/>
+    <col min="166" max="166" width="11.5703125"/>
+    <col min="167" max="167" width="11.5703125"/>
+    <col min="168" max="168" width="11.5703125"/>
+    <col min="169" max="169" width="11.5703125"/>
+    <col min="170" max="170" width="11.5703125"/>
+    <col min="171" max="171" width="11.5703125"/>
+    <col min="172" max="172" width="11.5703125"/>
+    <col min="173" max="173" width="11.5703125"/>
+    <col min="174" max="174" width="11.5703125"/>
+    <col min="175" max="175" width="11.5703125"/>
+    <col min="176" max="176" width="11.5703125"/>
+    <col min="177" max="177" width="11.5703125"/>
+    <col min="178" max="178" width="11.5703125"/>
+    <col min="179" max="179" width="11.5703125"/>
+    <col min="180" max="180" width="11.5703125"/>
+    <col min="181" max="181" width="11.5703125"/>
+    <col min="182" max="182" width="11.5703125"/>
+    <col min="183" max="183" width="11.5703125"/>
+    <col min="184" max="184" width="11.5703125"/>
+    <col min="185" max="185" width="11.5703125"/>
+    <col min="186" max="186" width="11.5703125"/>
+    <col min="187" max="187" width="11.5703125"/>
+    <col min="188" max="188" width="11.5703125"/>
+    <col min="189" max="189" width="11.5703125"/>
+    <col min="190" max="190" width="11.5703125"/>
+    <col min="191" max="191" width="11.5703125"/>
+    <col min="192" max="192" width="11.5703125"/>
+    <col min="193" max="193" width="11.5703125"/>
+    <col min="194" max="194" width="11.5703125"/>
+    <col min="195" max="195" width="11.5703125"/>
+    <col min="196" max="196" width="11.5703125"/>
+    <col min="197" max="197" width="11.5703125"/>
+    <col min="198" max="198" width="11.5703125"/>
+    <col min="199" max="199" width="11.5703125"/>
+    <col min="200" max="200" width="11.5703125"/>
+    <col min="201" max="201" width="11.5703125"/>
+    <col min="202" max="202" width="11.5703125"/>
+    <col min="203" max="203" width="11.5703125"/>
+    <col min="204" max="204" width="11.5703125"/>
+    <col min="205" max="205" width="11.5703125"/>
+    <col min="206" max="206" width="11.5703125"/>
+    <col min="207" max="207" width="11.5703125"/>
+    <col min="208" max="208" width="11.5703125"/>
+    <col min="209" max="209" width="11.5703125"/>
+    <col min="210" max="210" width="11.5703125"/>
+    <col min="211" max="211" width="11.5703125"/>
+    <col min="212" max="212" width="11.5703125"/>
+    <col min="213" max="213" width="11.5703125"/>
+    <col min="214" max="214" width="11.5703125"/>
+    <col min="215" max="215" width="11.5703125"/>
+    <col min="216" max="216" width="11.5703125"/>
+    <col min="217" max="217" width="11.5703125"/>
+    <col min="218" max="218" width="11.5703125"/>
+    <col min="219" max="219" width="11.5703125"/>
+    <col min="220" max="220" width="11.5703125"/>
+    <col min="221" max="221" width="11.5703125"/>
+    <col min="222" max="222" width="11.5703125"/>
+    <col min="223" max="223" width="11.5703125"/>
+    <col min="224" max="224" width="11.5703125"/>
+    <col min="225" max="225" width="11.5703125"/>
+    <col min="226" max="226" width="11.5703125"/>
+    <col min="227" max="227" width="11.5703125"/>
+    <col min="228" max="228" width="11.5703125"/>
+    <col min="229" max="229" width="11.5703125"/>
+    <col min="230" max="230" width="11.5703125"/>
+    <col min="231" max="231" width="11.5703125"/>
+    <col min="232" max="232" width="11.5703125"/>
+    <col min="233" max="233" width="11.5703125"/>
+    <col min="234" max="234" width="11.5703125"/>
+    <col min="235" max="235" width="11.5703125"/>
+    <col min="236" max="236" width="11.5703125"/>
+    <col min="237" max="237" width="11.5703125"/>
+    <col min="238" max="238" width="11.5703125"/>
+    <col min="239" max="239" width="11.5703125"/>
+    <col min="240" max="240" width="11.5703125"/>
+    <col min="241" max="241" width="11.5703125"/>
+    <col min="242" max="242" width="11.5703125"/>
+    <col min="243" max="243" width="11.5703125"/>
+    <col min="244" max="244" width="11.5703125"/>
+    <col min="245" max="245" width="11.5703125"/>
+    <col min="246" max="246" width="11.5703125"/>
+    <col min="247" max="247" width="11.5703125"/>
+    <col min="248" max="248" width="11.5703125"/>
+    <col min="249" max="249" width="11.5703125"/>
+    <col min="250" max="250" width="11.5703125"/>
+    <col min="251" max="251" width="11.5703125"/>
+    <col min="252" max="252" width="11.5703125"/>
+    <col min="253" max="253" width="11.5703125"/>
+    <col min="254" max="254" width="11.5703125"/>
+    <col min="255" max="255" width="11.5703125"/>
+    <col min="256" max="256" width="11.5703125"/>
+    <col min="257" max="257" width="11.5703125"/>
+    <col min="258" max="258" width="11.5703125"/>
+    <col min="259" max="259" width="11.5703125"/>
+    <col min="260" max="260" width="11.5703125"/>
+    <col min="261" max="261" width="11.5703125"/>
+    <col min="262" max="262" width="11.5703125"/>
+    <col min="263" max="263" width="11.5703125"/>
+    <col min="264" max="264" width="11.5703125"/>
+    <col min="265" max="265" width="11.5703125"/>
+    <col min="266" max="266" width="11.5703125"/>
+    <col min="267" max="267" width="11.5703125"/>
+    <col min="268" max="268" width="11.5703125"/>
+    <col min="269" max="269" width="11.5703125"/>
+    <col min="270" max="270" width="11.5703125"/>
+    <col min="271" max="271" width="11.5703125"/>
+    <col min="272" max="272" width="11.5703125"/>
+    <col min="273" max="273" width="11.5703125"/>
+    <col min="274" max="274" width="11.5703125"/>
+    <col min="275" max="275" width="11.5703125"/>
+    <col min="276" max="276" width="11.5703125"/>
+    <col min="277" max="277" width="11.5703125"/>
+    <col min="278" max="278" width="11.5703125"/>
+    <col min="279" max="279" width="11.5703125"/>
+    <col min="280" max="280" width="11.5703125"/>
+    <col min="281" max="281" width="11.5703125"/>
+    <col min="282" max="282" width="11.5703125"/>
+    <col min="283" max="283" width="11.5703125"/>
+    <col min="284" max="284" width="11.5703125"/>
+    <col min="285" max="285" width="11.5703125"/>
+    <col min="286" max="286" width="11.5703125"/>
+    <col min="287" max="287" width="11.5703125"/>
+    <col min="288" max="288" width="11.5703125"/>
+    <col min="289" max="289" width="11.5703125"/>
+    <col min="290" max="290" width="11.5703125"/>
+    <col min="291" max="291" width="11.5703125"/>
+    <col min="292" max="292" width="11.5703125"/>
+    <col min="293" max="293" width="11.5703125"/>
+    <col min="294" max="294" width="11.5703125"/>
+    <col min="295" max="295" width="11.5703125"/>
+    <col min="296" max="296" width="11.5703125"/>
+    <col min="297" max="297" width="11.5703125"/>
+    <col min="298" max="298" width="11.5703125"/>
+    <col min="299" max="299" width="11.5703125"/>
+    <col min="300" max="300" width="11.5703125"/>
+    <col min="301" max="301" width="11.5703125"/>
+    <col min="302" max="302" width="11.5703125"/>
+    <col min="303" max="303" width="11.5703125"/>
+    <col min="304" max="304" width="11.5703125"/>
+    <col min="305" max="305" width="11.5703125"/>
+    <col min="306" max="306" width="11.5703125"/>
+    <col min="307" max="307" width="11.5703125"/>
+    <col min="308" max="308" width="11.5703125"/>
+    <col min="309" max="309" width="11.5703125"/>
+    <col min="310" max="310" width="11.5703125"/>
+    <col min="311" max="311" width="11.5703125"/>
+    <col min="312" max="312" width="11.5703125"/>
+    <col min="313" max="313" width="11.5703125"/>
+    <col min="314" max="314" width="11.5703125"/>
+    <col min="315" max="315" width="11.5703125"/>
+    <col min="316" max="316" width="11.5703125"/>
+    <col min="317" max="317" width="11.5703125"/>
+    <col min="318" max="318" width="11.5703125"/>
+    <col min="319" max="319" width="11.5703125"/>
+    <col min="320" max="320" width="11.5703125"/>
+    <col min="321" max="321" width="11.5703125"/>
+    <col min="322" max="322" width="11.5703125"/>
+    <col min="323" max="323" width="11.5703125"/>
+    <col min="324" max="324" width="11.5703125"/>
+    <col min="325" max="325" width="11.5703125"/>
+    <col min="326" max="326" width="11.5703125"/>
+    <col min="327" max="327" width="11.5703125"/>
+    <col min="328" max="328" width="11.5703125"/>
+    <col min="329" max="329" width="11.5703125"/>
+    <col min="330" max="330" width="11.5703125"/>
+    <col min="331" max="331" width="11.5703125"/>
+    <col min="332" max="332" width="11.5703125"/>
+    <col min="333" max="333" width="11.5703125"/>
+    <col min="334" max="334" width="11.5703125"/>
+    <col min="335" max="335" width="11.5703125"/>
+    <col min="336" max="336" width="11.5703125"/>
+    <col min="337" max="337" width="11.5703125"/>
+    <col min="338" max="338" width="11.5703125"/>
+    <col min="339" max="339" width="11.5703125"/>
+    <col min="340" max="340" width="11.5703125"/>
+    <col min="341" max="341" width="11.5703125"/>
+    <col min="342" max="342" width="11.5703125"/>
+    <col min="343" max="343" width="11.5703125"/>
+    <col min="344" max="344" width="11.5703125"/>
+    <col min="345" max="345" width="11.5703125"/>
+    <col min="346" max="346" width="11.5703125"/>
+    <col min="347" max="347" width="11.5703125"/>
+    <col min="348" max="348" width="11.5703125"/>
+    <col min="349" max="349" width="11.5703125"/>
+    <col min="350" max="350" width="11.5703125"/>
+    <col min="351" max="351" width="11.5703125"/>
+    <col min="352" max="352" width="11.5703125"/>
+    <col min="353" max="353" width="11.5703125"/>
+    <col min="354" max="354" width="11.5703125"/>
+    <col min="355" max="355" width="11.5703125"/>
+    <col min="356" max="356" width="11.5703125"/>
+    <col min="357" max="357" width="11.5703125"/>
+    <col min="358" max="358" width="11.5703125"/>
+    <col min="359" max="359" width="11.5703125"/>
+    <col min="360" max="360" width="11.5703125"/>
+    <col min="361" max="361" width="11.5703125"/>
+    <col min="362" max="362" width="11.5703125"/>
+    <col min="363" max="363" width="11.5703125"/>
+    <col min="364" max="364" width="11.5703125"/>
+    <col min="365" max="365" width="11.5703125"/>
+    <col min="366" max="366" width="11.5703125"/>
+    <col min="367" max="367" width="11.5703125"/>
+    <col min="368" max="368" width="11.5703125"/>
+    <col min="369" max="369" width="11.5703125"/>
+    <col min="370" max="370" width="11.5703125"/>
+    <col min="371" max="371" width="11.5703125"/>
+    <col min="372" max="372" width="11.5703125"/>
+    <col min="373" max="373" width="11.5703125"/>
+    <col min="374" max="374" width="11.5703125"/>
+    <col min="375" max="375" width="11.5703125"/>
+    <col min="376" max="376" width="11.5703125"/>
+    <col min="377" max="377" width="11.5703125"/>
+    <col min="378" max="378" width="11.5703125"/>
+    <col min="379" max="379" width="11.5703125"/>
+    <col min="380" max="380" width="11.5703125"/>
+    <col min="381" max="381" width="11.5703125"/>
+    <col min="382" max="382" width="11.5703125"/>
+    <col min="383" max="383" width="11.5703125"/>
+    <col min="384" max="384" width="11.5703125"/>
+    <col min="385" max="385" width="11.5703125"/>
+    <col min="386" max="386" width="11.5703125"/>
+    <col min="387" max="387" width="11.5703125"/>
+    <col min="388" max="388" width="11.5703125"/>
+    <col min="389" max="389" width="11.5703125"/>
+    <col min="390" max="390" width="11.5703125"/>
+    <col min="391" max="391" width="11.5703125"/>
+    <col min="392" max="392" width="11.5703125"/>
+    <col min="393" max="393" width="11.5703125"/>
+    <col min="394" max="394" width="11.5703125"/>
+    <col min="395" max="395" width="11.5703125"/>
+    <col min="396" max="396" width="11.5703125"/>
+    <col min="397" max="397" width="11.5703125"/>
+    <col min="398" max="398" width="11.5703125"/>
+    <col min="399" max="399" width="11.5703125"/>
+    <col min="400" max="400" width="11.5703125"/>
+    <col min="401" max="401" width="11.5703125"/>
+    <col min="402" max="402" width="11.5703125"/>
+    <col min="403" max="403" width="11.5703125"/>
+    <col min="404" max="404" width="11.5703125"/>
+    <col min="405" max="405" width="11.5703125"/>
+    <col min="406" max="406" width="11.5703125"/>
+    <col min="407" max="407" width="11.5703125"/>
+    <col min="408" max="408" width="11.5703125"/>
+    <col min="409" max="409" width="11.5703125"/>
+    <col min="410" max="410" width="11.5703125"/>
+    <col min="411" max="411" width="11.5703125"/>
+    <col min="412" max="412" width="11.5703125"/>
+    <col min="413" max="413" width="11.5703125"/>
+    <col min="414" max="414" width="11.5703125"/>
+    <col min="415" max="415" width="11.5703125"/>
+    <col min="416" max="416" width="11.5703125"/>
+    <col min="417" max="417" width="11.5703125"/>
+    <col min="418" max="418" width="11.5703125"/>
+    <col min="419" max="419" width="11.5703125"/>
+    <col min="420" max="420" width="11.5703125"/>
+    <col min="421" max="421" width="11.5703125"/>
+    <col min="422" max="422" width="11.5703125"/>
+    <col min="423" max="423" width="11.5703125"/>
+    <col min="424" max="424" width="11.5703125"/>
+    <col min="425" max="425" width="11.5703125"/>
+    <col min="426" max="426" width="11.5703125"/>
+    <col min="427" max="427" width="11.5703125"/>
+    <col min="428" max="428" width="11.5703125"/>
+    <col min="429" max="429" width="11.5703125"/>
+    <col min="430" max="430" width="11.5703125"/>
+    <col min="431" max="431" width="11.5703125"/>
+    <col min="432" max="432" width="11.5703125"/>
+    <col min="433" max="433" width="11.5703125"/>
+    <col min="434" max="434" width="11.5703125"/>
+    <col min="435" max="435" width="11.5703125"/>
+    <col min="436" max="436" width="11.5703125"/>
+    <col min="437" max="437" width="11.5703125"/>
+    <col min="438" max="438" width="11.5703125"/>
+    <col min="439" max="439" width="11.5703125"/>
+    <col min="440" max="440" width="11.5703125"/>
+    <col min="441" max="441" width="11.5703125"/>
+    <col min="442" max="442" width="11.5703125"/>
+    <col min="443" max="443" width="11.5703125"/>
+    <col min="444" max="444" width="11.5703125"/>
+    <col min="445" max="445" width="11.5703125"/>
+    <col min="446" max="446" width="11.5703125"/>
+    <col min="447" max="447" width="11.5703125"/>
+    <col min="448" max="448" width="11.5703125"/>
+    <col min="449" max="449" width="11.5703125"/>
+    <col min="450" max="450" width="11.5703125"/>
+    <col min="451" max="451" width="11.5703125"/>
+    <col min="452" max="452" width="11.5703125"/>
+    <col min="453" max="453" width="11.5703125"/>
+    <col min="454" max="454" width="11.5703125"/>
+    <col min="455" max="455" width="11.5703125"/>
+    <col min="456" max="456" width="11.5703125"/>
+    <col min="457" max="457" width="11.5703125"/>
+    <col min="458" max="458" width="11.5703125"/>
+    <col min="459" max="459" width="11.5703125"/>
+    <col min="460" max="460" width="11.5703125"/>
+    <col min="461" max="461" width="11.5703125"/>
+    <col min="462" max="462" width="11.5703125"/>
+    <col min="463" max="463" width="11.5703125"/>
+    <col min="464" max="464" width="11.5703125"/>
+    <col min="465" max="465" width="11.5703125"/>
+    <col min="466" max="466" width="11.5703125"/>
+    <col min="467" max="467" width="11.5703125"/>
+    <col min="468" max="468" width="11.5703125"/>
+    <col min="469" max="469" width="11.5703125"/>
+    <col min="470" max="470" width="11.5703125"/>
+    <col min="471" max="471" width="11.5703125"/>
+    <col min="472" max="472" width="11.5703125"/>
+    <col min="473" max="473" width="11.5703125"/>
+    <col min="474" max="474" width="11.5703125"/>
+    <col min="475" max="475" width="11.5703125"/>
+    <col min="476" max="476" width="11.5703125"/>
+    <col min="477" max="477" width="11.5703125"/>
+    <col min="478" max="478" width="11.5703125"/>
+    <col min="479" max="479" width="11.5703125"/>
+    <col min="480" max="480" width="11.5703125"/>
+    <col min="481" max="481" width="11.5703125"/>
+    <col min="482" max="482" width="11.5703125"/>
+    <col min="483" max="483" width="11.5703125"/>
+    <col min="484" max="484" width="11.5703125"/>
+    <col min="485" max="485" width="11.5703125"/>
+    <col min="486" max="486" width="11.5703125"/>
+    <col min="487" max="487" width="11.5703125"/>
+    <col min="488" max="488" width="11.5703125"/>
+    <col min="489" max="489" width="11.5703125"/>
+    <col min="490" max="490" width="11.5703125"/>
+    <col min="491" max="491" width="11.5703125"/>
+    <col min="492" max="492" width="11.5703125"/>
+    <col min="493" max="493" width="11.5703125"/>
+    <col min="494" max="494" width="11.5703125"/>
+    <col min="495" max="495" width="11.5703125"/>
+    <col min="496" max="496" width="11.5703125"/>
+    <col min="497" max="497" width="11.5703125"/>
+    <col min="498" max="498" width="11.5703125"/>
+    <col min="499" max="499" width="11.5703125"/>
+    <col min="500" max="500" width="11.5703125"/>
+    <col min="501" max="501" width="11.5703125"/>
+    <col min="502" max="502" width="11.5703125"/>
+    <col min="503" max="503" width="11.5703125"/>
+    <col min="504" max="504" width="11.5703125"/>
+    <col min="505" max="505" width="11.5703125"/>
+    <col min="506" max="506" width="11.5703125"/>
+    <col min="507" max="507" width="11.5703125"/>
+    <col min="508" max="508" width="11.5703125"/>
+    <col min="509" max="509" width="11.5703125"/>
+    <col min="510" max="510" width="11.5703125"/>
+    <col min="511" max="511" width="11.5703125"/>
+    <col min="512" max="512" width="11.5703125"/>
+    <col min="513" max="513" width="11.5703125"/>
+    <col min="514" max="514" width="11.5703125"/>
+    <col min="515" max="515" width="11.5703125"/>
+    <col min="516" max="516" width="11.5703125"/>
+    <col min="517" max="517" width="11.5703125"/>
+    <col min="518" max="518" width="11.5703125"/>
+    <col min="519" max="519" width="11.5703125"/>
+    <col min="520" max="520" width="11.5703125"/>
+    <col min="521" max="521" width="11.5703125"/>
+    <col min="522" max="522" width="11.5703125"/>
+    <col min="523" max="523" width="11.5703125"/>
+    <col min="524" max="524" width="11.5703125"/>
+    <col min="525" max="525" width="11.5703125"/>
+    <col min="526" max="526" width="11.5703125"/>
+    <col min="527" max="527" width="11.5703125"/>
+    <col min="528" max="528" width="11.5703125"/>
+    <col min="529" max="529" width="11.5703125"/>
+    <col min="530" max="530" width="11.5703125"/>
+    <col min="531" max="531" width="11.5703125"/>
+    <col min="532" max="532" width="11.5703125"/>
+    <col min="533" max="533" width="11.5703125"/>
+    <col min="534" max="534" width="11.5703125"/>
+    <col min="535" max="535" width="11.5703125"/>
+    <col min="536" max="536" width="11.5703125"/>
+    <col min="537" max="537" width="11.5703125"/>
+    <col min="538" max="538" width="11.5703125"/>
+    <col min="539" max="539" width="11.5703125"/>
+    <col min="540" max="540" width="11.5703125"/>
+    <col min="541" max="541" width="11.5703125"/>
+    <col min="542" max="542" width="11.5703125"/>
+    <col min="543" max="543" width="11.5703125"/>
+    <col min="544" max="544" width="11.5703125"/>
+    <col min="545" max="545" width="11.5703125"/>
+    <col min="546" max="546" width="11.5703125"/>
+    <col min="547" max="547" width="11.5703125"/>
+    <col min="548" max="548" width="11.5703125"/>
+    <col min="549" max="549" width="11.5703125"/>
+    <col min="550" max="550" width="11.5703125"/>
+    <col min="551" max="551" width="11.5703125"/>
+    <col min="552" max="552" width="11.5703125"/>
+    <col min="553" max="553" width="11.5703125"/>
+    <col min="554" max="554" width="11.5703125"/>
+    <col min="555" max="555" width="11.5703125"/>
+    <col min="556" max="556" width="11.5703125"/>
+    <col min="557" max="557" width="11.5703125"/>
+    <col min="558" max="558" width="11.5703125"/>
+    <col min="559" max="559" width="11.5703125"/>
+    <col min="560" max="560" width="11.5703125"/>
+    <col min="561" max="561" width="11.5703125"/>
+    <col min="562" max="562" width="11.5703125"/>
+    <col min="563" max="563" width="11.5703125"/>
+    <col min="564" max="564" width="11.5703125"/>
+    <col min="565" max="565" width="11.5703125"/>
+    <col min="566" max="566" width="11.5703125"/>
+    <col min="567" max="567" width="11.5703125"/>
+    <col min="568" max="568" width="11.5703125"/>
+    <col min="569" max="569" width="11.5703125"/>
+    <col min="570" max="570" width="11.5703125"/>
+    <col min="571" max="571" width="11.5703125"/>
+    <col min="572" max="572" width="11.5703125"/>
+    <col min="573" max="573" width="11.5703125"/>
+    <col min="574" max="574" width="11.5703125"/>
+    <col min="575" max="575" width="11.5703125"/>
+    <col min="576" max="576" width="11.5703125"/>
+    <col min="577" max="577" width="11.5703125"/>
+    <col min="578" max="578" width="11.5703125"/>
+    <col min="579" max="579" width="11.5703125"/>
+    <col min="580" max="580" width="11.5703125"/>
+    <col min="581" max="581" width="11.5703125"/>
+    <col min="582" max="582" width="11.5703125"/>
+    <col min="583" max="583" width="11.5703125"/>
+    <col min="584" max="584" width="11.5703125"/>
+    <col min="585" max="585" width="11.5703125"/>
+    <col min="586" max="586" width="11.5703125"/>
+    <col min="587" max="587" width="11.5703125"/>
+    <col min="588" max="588" width="11.5703125"/>
+    <col min="589" max="589" width="11.5703125"/>
+    <col min="590" max="590" width="11.5703125"/>
+    <col min="591" max="591" width="11.5703125"/>
+    <col min="592" max="592" width="11.5703125"/>
+    <col min="593" max="593" width="11.5703125"/>
+    <col min="594" max="594" width="11.5703125"/>
+    <col min="595" max="595" width="11.5703125"/>
+    <col min="596" max="596" width="11.5703125"/>
+    <col min="597" max="597" width="11.5703125"/>
+    <col min="598" max="598" width="11.5703125"/>
+    <col min="599" max="599" width="11.5703125"/>
+    <col min="600" max="600" width="11.5703125"/>
+    <col min="601" max="601" width="11.5703125"/>
+    <col min="602" max="602" width="11.5703125"/>
+    <col min="603" max="603" width="11.5703125"/>
+    <col min="604" max="604" width="11.5703125"/>
+    <col min="605" max="605" width="11.5703125"/>
+    <col min="606" max="606" width="11.5703125"/>
+    <col min="607" max="607" width="11.5703125"/>
+    <col min="608" max="608" width="11.5703125"/>
+    <col min="609" max="609" width="11.5703125"/>
+    <col min="610" max="610" width="11.5703125"/>
+    <col min="611" max="611" width="11.5703125"/>
+    <col min="612" max="612" width="11.5703125"/>
+    <col min="613" max="613" width="11.5703125"/>
+    <col min="614" max="614" width="11.5703125"/>
+    <col min="615" max="615" width="11.5703125"/>
+    <col min="616" max="616" width="11.5703125"/>
+    <col min="617" max="617" width="11.5703125"/>
+    <col min="618" max="618" width="11.5703125"/>
+    <col min="619" max="619" width="11.5703125"/>
+    <col min="620" max="620" width="11.5703125"/>
+    <col min="621" max="621" width="11.5703125"/>
+    <col min="622" max="622" width="11.5703125"/>
+    <col min="623" max="623" width="11.5703125"/>
+    <col min="624" max="624" width="11.5703125"/>
+    <col min="625" max="625" width="11.5703125"/>
+    <col min="626" max="626" width="11.5703125"/>
+    <col min="627" max="627" width="11.5703125"/>
+    <col min="628" max="628" width="11.5703125"/>
+    <col min="629" max="629" width="11.5703125"/>
+    <col min="630" max="630" width="11.5703125"/>
+    <col min="631" max="631" width="11.5703125"/>
+    <col min="632" max="632" width="11.5703125"/>
+    <col min="633" max="633" width="11.5703125"/>
+    <col min="634" max="634" width="11.5703125"/>
+    <col min="635" max="635" width="11.5703125"/>
+    <col min="636" max="636" width="11.5703125"/>
+    <col min="637" max="637" width="11.5703125"/>
+    <col min="638" max="638" width="11.5703125"/>
+    <col min="639" max="639" width="11.5703125"/>
+    <col min="640" max="640" width="11.5703125"/>
+    <col min="641" max="641" width="11.5703125"/>
+    <col min="642" max="642" width="11.5703125"/>
+    <col min="643" max="643" width="11.5703125"/>
+    <col min="644" max="644" width="11.5703125"/>
+    <col min="645" max="645" width="11.5703125"/>
+    <col min="646" max="646" width="11.5703125"/>
+    <col min="647" max="647" width="11.5703125"/>
+    <col min="648" max="648" width="11.5703125"/>
+    <col min="649" max="649" width="11.5703125"/>
+    <col min="650" max="650" width="11.5703125"/>
+    <col min="651" max="651" width="11.5703125"/>
+    <col min="652" max="652" width="11.5703125"/>
+    <col min="653" max="653" width="11.5703125"/>
+    <col min="654" max="654" width="11.5703125"/>
+    <col min="655" max="655" width="11.5703125"/>
+    <col min="656" max="656" width="11.5703125"/>
+    <col min="657" max="657" width="11.5703125"/>
+    <col min="658" max="658" width="11.5703125"/>
+    <col min="659" max="659" width="11.5703125"/>
+    <col min="660" max="660" width="11.5703125"/>
+    <col min="661" max="661" width="11.5703125"/>
+    <col min="662" max="662" width="11.5703125"/>
+    <col min="663" max="663" width="11.5703125"/>
+    <col min="664" max="664" width="11.5703125"/>
+    <col min="665" max="665" width="11.5703125"/>
+    <col min="666" max="666" width="11.5703125"/>
+    <col min="667" max="667" width="11.5703125"/>
+    <col min="668" max="668" width="11.5703125"/>
+    <col min="669" max="669" width="11.5703125"/>
+    <col min="670" max="670" width="11.5703125"/>
+    <col min="671" max="671" width="11.5703125"/>
+    <col min="672" max="672" width="11.5703125"/>
+    <col min="673" max="673" width="11.5703125"/>
+    <col min="674" max="674" width="11.5703125"/>
+    <col min="675" max="675" width="11.5703125"/>
+    <col min="676" max="676" width="11.5703125"/>
+    <col min="677" max="677" width="11.5703125"/>
+    <col min="678" max="678" width="11.5703125"/>
+    <col min="679" max="679" width="11.5703125"/>
+    <col min="680" max="680" width="11.5703125"/>
+    <col min="681" max="681" width="11.5703125"/>
+    <col min="682" max="682" width="11.5703125"/>
+    <col min="683" max="683" width="11.5703125"/>
+    <col min="684" max="684" width="11.5703125"/>
+    <col min="685" max="685" width="11.5703125"/>
+    <col min="686" max="686" width="11.5703125"/>
+    <col min="687" max="687" width="11.5703125"/>
+    <col min="688" max="688" width="11.5703125"/>
+    <col min="689" max="689" width="11.5703125"/>
+    <col min="690" max="690" width="11.5703125"/>
+    <col min="691" max="691" width="11.5703125"/>
+    <col min="692" max="692" width="11.5703125"/>
+    <col min="693" max="693" width="11.5703125"/>
+    <col min="694" max="694" width="11.5703125"/>
+    <col min="695" max="695" width="11.5703125"/>
+    <col min="696" max="696" width="11.5703125"/>
+    <col min="697" max="697" width="11.5703125"/>
+    <col min="698" max="698" width="11.5703125"/>
+    <col min="699" max="699" width="11.5703125"/>
+    <col min="700" max="700" width="11.5703125"/>
+    <col min="701" max="701" width="11.5703125"/>
+    <col min="702" max="702" width="11.5703125"/>
+    <col min="703" max="703" width="11.5703125"/>
+    <col min="704" max="704" width="11.5703125"/>
+    <col min="705" max="705" width="11.5703125"/>
+    <col min="706" max="706" width="11.5703125"/>
+    <col min="707" max="707" width="11.5703125"/>
+    <col min="708" max="708" width="11.5703125"/>
+    <col min="709" max="709" width="11.5703125"/>
+    <col min="710" max="710" width="11.5703125"/>
+    <col min="711" max="711" width="11.5703125"/>
+    <col min="712" max="712" width="11.5703125"/>
+    <col min="713" max="713" width="11.5703125"/>
+    <col min="714" max="714" width="11.5703125"/>
+    <col min="715" max="715" width="11.5703125"/>
+    <col min="716" max="716" width="11.5703125"/>
+    <col min="717" max="717" width="11.5703125"/>
+    <col min="718" max="718" width="11.5703125"/>
+    <col min="719" max="719" width="11.5703125"/>
+    <col min="720" max="720" width="11.5703125"/>
+    <col min="721" max="721" width="11.5703125"/>
+    <col min="722" max="722" width="11.5703125"/>
+    <col min="723" max="723" width="11.5703125"/>
+    <col min="724" max="724" width="11.5703125"/>
+    <col min="725" max="725" width="11.5703125"/>
+    <col min="726" max="726" width="11.5703125"/>
+    <col min="727" max="727" width="11.5703125"/>
+    <col min="728" max="728" width="11.5703125"/>
+    <col min="729" max="729" width="11.5703125"/>
+    <col min="730" max="730" width="11.5703125"/>
+    <col min="731" max="731" width="11.5703125"/>
+    <col min="732" max="732" width="11.5703125"/>
+    <col min="733" max="733" width="11.5703125"/>
+    <col min="734" max="734" width="11.5703125"/>
+    <col min="735" max="735" width="11.5703125"/>
+    <col min="736" max="736" width="11.5703125"/>
+    <col min="737" max="737" width="11.5703125"/>
+    <col min="738" max="738" width="11.5703125"/>
+    <col min="739" max="739" width="11.5703125"/>
+    <col min="740" max="740" width="11.5703125"/>
+    <col min="741" max="741" width="11.5703125"/>
+    <col min="742" max="742" width="11.5703125"/>
+    <col min="743" max="743" width="11.5703125"/>
+    <col min="744" max="744" width="11.5703125"/>
+    <col min="745" max="745" width="11.5703125"/>
+    <col min="746" max="746" width="11.5703125"/>
+    <col min="747" max="747" width="11.5703125"/>
+    <col min="748" max="748" width="11.5703125"/>
+    <col min="749" max="749" width="11.5703125"/>
+    <col min="750" max="750" width="11.5703125"/>
+    <col min="751" max="751" width="11.5703125"/>
+    <col min="752" max="752" width="11.5703125"/>
+    <col min="753" max="753" width="11.5703125"/>
+    <col min="754" max="754" width="11.5703125"/>
+    <col min="755" max="755" width="11.5703125"/>
+    <col min="756" max="756" width="11.5703125"/>
+    <col min="757" max="757" width="11.5703125"/>
+    <col min="758" max="758" width="11.5703125"/>
+    <col min="759" max="759" width="11.5703125"/>
+    <col min="760" max="760" width="11.5703125"/>
+    <col min="761" max="761" width="11.5703125"/>
+    <col min="762" max="762" width="11.5703125"/>
+    <col min="763" max="763" width="11.5703125"/>
+    <col min="764" max="764" width="11.5703125"/>
+    <col min="765" max="765" width="11.5703125"/>
+    <col min="766" max="766" width="11.5703125"/>
+    <col min="767" max="767" width="11.5703125"/>
+    <col min="768" max="768" width="11.5703125"/>
+    <col min="769" max="769" width="11.5703125"/>
+    <col min="770" max="770" width="11.5703125"/>
+    <col min="771" max="771" width="11.5703125"/>
+    <col min="772" max="772" width="11.5703125"/>
+    <col min="773" max="773" width="11.5703125"/>
+    <col min="774" max="774" width="11.5703125"/>
+    <col min="775" max="775" width="11.5703125"/>
+    <col min="776" max="776" width="11.5703125"/>
+    <col min="777" max="777" width="11.5703125"/>
+    <col min="778" max="778" width="11.5703125"/>
+    <col min="779" max="779" width="11.5703125"/>
+    <col min="780" max="780" width="11.5703125"/>
+    <col min="781" max="781" width="11.5703125"/>
+    <col min="782" max="782" width="11.5703125"/>
+    <col min="783" max="783" width="11.5703125"/>
+    <col min="784" max="784" width="11.5703125"/>
+    <col min="785" max="785" width="11.5703125"/>
+    <col min="786" max="786" width="11.5703125"/>
+    <col min="787" max="787" width="11.5703125"/>
+    <col min="788" max="788" width="11.5703125"/>
+    <col min="789" max="789" width="11.5703125"/>
+    <col min="790" max="790" width="11.5703125"/>
+    <col min="791" max="791" width="11.5703125"/>
+    <col min="792" max="792" width="11.5703125"/>
+    <col min="793" max="793" width="11.5703125"/>
+    <col min="794" max="794" width="11.5703125"/>
+    <col min="795" max="795" width="11.5703125"/>
+    <col min="796" max="796" width="11.5703125"/>
+    <col min="797" max="797" width="11.5703125"/>
+    <col min="798" max="798" width="11.5703125"/>
+    <col min="799" max="799" width="11.5703125"/>
+    <col min="800" max="800" width="11.5703125"/>
+    <col min="801" max="801" width="11.5703125"/>
+    <col min="802" max="802" width="11.5703125"/>
+    <col min="803" max="803" width="11.5703125"/>
+    <col min="804" max="804" width="11.5703125"/>
+    <col min="805" max="805" width="11.5703125"/>
+    <col min="806" max="806" width="11.5703125"/>
+    <col min="807" max="807" width="11.5703125"/>
+    <col min="808" max="808" width="11.5703125"/>
+    <col min="809" max="809" width="11.5703125"/>
+    <col min="810" max="810" width="11.5703125"/>
+    <col min="811" max="811" width="11.5703125"/>
+    <col min="812" max="812" width="11.5703125"/>
+    <col min="813" max="813" width="11.5703125"/>
+    <col min="814" max="814" width="11.5703125"/>
+    <col min="815" max="815" width="11.5703125"/>
+    <col min="816" max="816" width="11.5703125"/>
+    <col min="817" max="817" width="11.5703125"/>
+    <col min="818" max="818" width="11.5703125"/>
+    <col min="819" max="819" width="11.5703125"/>
+    <col min="820" max="820" width="11.5703125"/>
+    <col min="821" max="821" width="11.5703125"/>
+    <col min="822" max="822" width="11.5703125"/>
+    <col min="823" max="823" width="11.5703125"/>
+    <col min="824" max="824" width="11.5703125"/>
+    <col min="825" max="825" width="11.5703125"/>
+    <col min="826" max="826" width="11.5703125"/>
+    <col min="827" max="827" width="11.5703125"/>
+    <col min="828" max="828" width="11.5703125"/>
+    <col min="829" max="829" width="11.5703125"/>
+    <col min="830" max="830" width="11.5703125"/>
+    <col min="831" max="831" width="11.5703125"/>
+    <col min="832" max="832" width="11.5703125"/>
+    <col min="833" max="833" width="11.5703125"/>
+    <col min="834" max="834" width="11.5703125"/>
+    <col min="835" max="835" width="11.5703125"/>
+    <col min="836" max="836" width="11.5703125"/>
+    <col min="837" max="837" width="11.5703125"/>
+    <col min="838" max="838" width="11.5703125"/>
+    <col min="839" max="839" width="11.5703125"/>
+    <col min="840" max="840" width="11.5703125"/>
+    <col min="841" max="841" width="11.5703125"/>
+    <col min="842" max="842" width="11.5703125"/>
+    <col min="843" max="843" width="11.5703125"/>
+    <col min="844" max="844" width="11.5703125"/>
+    <col min="845" max="845" width="11.5703125"/>
+    <col min="846" max="846" width="11.5703125"/>
+    <col min="847" max="847" width="11.5703125"/>
+    <col min="848" max="848" width="11.5703125"/>
+    <col min="849" max="849" width="11.5703125"/>
+    <col min="850" max="850" width="11.5703125"/>
+    <col min="851" max="851" width="11.5703125"/>
+    <col min="852" max="852" width="11.5703125"/>
+    <col min="853" max="853" width="11.5703125"/>
+    <col min="854" max="854" width="11.5703125"/>
+    <col min="855" max="855" width="11.5703125"/>
+    <col min="856" max="856" width="11.5703125"/>
+    <col min="857" max="857" width="11.5703125"/>
+    <col min="858" max="858" width="11.5703125"/>
+    <col min="859" max="859" width="11.5703125"/>
+    <col min="860" max="860" width="11.5703125"/>
+    <col min="861" max="861" width="11.5703125"/>
+    <col min="862" max="862" width="11.5703125"/>
+    <col min="863" max="863" width="11.5703125"/>
+    <col min="864" max="864" width="11.5703125"/>
+    <col min="865" max="865" width="11.5703125"/>
+    <col min="866" max="866" width="11.5703125"/>
+    <col min="867" max="867" width="11.5703125"/>
+    <col min="868" max="868" width="11.5703125"/>
+    <col min="869" max="869" width="11.5703125"/>
+    <col min="870" max="870" width="11.5703125"/>
+    <col min="871" max="871" width="11.5703125"/>
+    <col min="872" max="872" width="11.5703125"/>
+    <col min="873" max="873" width="11.5703125"/>
+    <col min="874" max="874" width="11.5703125"/>
+    <col min="875" max="875" width="11.5703125"/>
+    <col min="876" max="876" width="11.5703125"/>
+    <col min="877" max="877" width="11.5703125"/>
+    <col min="878" max="878" width="11.5703125"/>
+    <col min="879" max="879" width="11.5703125"/>
+    <col min="880" max="880" width="11.5703125"/>
+    <col min="881" max="881" width="11.5703125"/>
+    <col min="882" max="882" width="11.5703125"/>
+    <col min="883" max="883" width="11.5703125"/>
+    <col min="884" max="884" width="11.5703125"/>
+    <col min="885" max="885" width="11.5703125"/>
+    <col min="886" max="886" width="11.5703125"/>
+    <col min="887" max="887" width="11.5703125"/>
+    <col min="888" max="888" width="11.5703125"/>
+    <col min="889" max="889" width="11.5703125"/>
+    <col min="890" max="890" width="11.5703125"/>
+    <col min="891" max="891" width="11.5703125"/>
+    <col min="892" max="892" width="11.5703125"/>
+    <col min="893" max="893" width="11.5703125"/>
+    <col min="894" max="894" width="11.5703125"/>
+    <col min="895" max="895" width="11.5703125"/>
+    <col min="896" max="896" width="11.5703125"/>
+    <col min="897" max="897" width="11.5703125"/>
+    <col min="898" max="898" width="11.5703125"/>
+    <col min="899" max="899" width="11.5703125"/>
+    <col min="900" max="900" width="11.5703125"/>
+    <col min="901" max="901" width="11.5703125"/>
+    <col min="902" max="902" width="11.5703125"/>
+    <col min="903" max="903" width="11.5703125"/>
+    <col min="904" max="904" width="11.5703125"/>
+    <col min="905" max="905" width="11.5703125"/>
+    <col min="906" max="906" width="11.5703125"/>
+    <col min="907" max="907" width="11.5703125"/>
+    <col min="908" max="908" width="11.5703125"/>
+    <col min="909" max="909" width="11.5703125"/>
+    <col min="910" max="910" width="11.5703125"/>
+    <col min="911" max="911" width="11.5703125"/>
+    <col min="912" max="912" width="11.5703125"/>
+    <col min="913" max="913" width="11.5703125"/>
+    <col min="914" max="914" width="11.5703125"/>
+    <col min="915" max="915" width="11.5703125"/>
+    <col min="916" max="916" width="11.5703125"/>
+    <col min="917" max="917" width="11.5703125"/>
+    <col min="918" max="918" width="11.5703125"/>
+    <col min="919" max="919" width="11.5703125"/>
+    <col min="920" max="920" width="11.5703125"/>
+    <col min="921" max="921" width="11.5703125"/>
+    <col min="922" max="922" width="11.5703125"/>
+    <col min="923" max="923" width="11.5703125"/>
+    <col min="924" max="924" width="11.5703125"/>
+    <col min="925" max="925" width="11.5703125"/>
+    <col min="926" max="926" width="11.5703125"/>
+    <col min="927" max="927" width="11.5703125"/>
+    <col min="928" max="928" width="11.5703125"/>
+    <col min="929" max="929" width="11.5703125"/>
+    <col min="930" max="930" width="11.5703125"/>
+    <col min="931" max="931" width="11.5703125"/>
+    <col min="932" max="932" width="11.5703125"/>
+    <col min="933" max="933" width="11.5703125"/>
+    <col min="934" max="934" width="11.5703125"/>
+    <col min="935" max="935" width="11.5703125"/>
+    <col min="936" max="936" width="11.5703125"/>
+    <col min="937" max="937" width="11.5703125"/>
+    <col min="938" max="938" width="11.5703125"/>
+    <col min="939" max="939" width="11.5703125"/>
+    <col min="940" max="940" width="11.5703125"/>
+    <col min="941" max="941" width="11.5703125"/>
+    <col min="942" max="942" width="11.5703125"/>
+    <col min="943" max="943" width="11.5703125"/>
+    <col min="944" max="944" width="11.5703125"/>
+    <col min="945" max="945" width="11.5703125"/>
+    <col min="946" max="946" width="11.5703125"/>
+    <col min="947" max="947" width="11.5703125"/>
+    <col min="948" max="948" width="11.5703125"/>
+    <col min="949" max="949" width="11.5703125"/>
+    <col min="950" max="950" width="11.5703125"/>
+    <col min="951" max="951" width="11.5703125"/>
+    <col min="952" max="952" width="11.5703125"/>
+    <col min="953" max="953" width="11.5703125"/>
+    <col min="954" max="954" width="11.5703125"/>
+    <col min="955" max="955" width="11.5703125"/>
+    <col min="956" max="956" width="11.5703125"/>
+    <col min="957" max="957" width="11.5703125"/>
+    <col min="958" max="958" width="11.5703125"/>
+    <col min="959" max="959" width="11.5703125"/>
+    <col min="960" max="960" width="11.5703125"/>
+    <col min="961" max="961" width="11.5703125"/>
+    <col min="962" max="962" width="11.5703125"/>
+    <col min="963" max="963" width="11.5703125"/>
+    <col min="964" max="964" width="11.5703125"/>
+    <col min="965" max="965" width="11.5703125"/>
+    <col min="966" max="966" width="11.5703125"/>
+    <col min="967" max="967" width="11.5703125"/>
+    <col min="968" max="968" width="11.5703125"/>
+    <col min="969" max="969" width="11.5703125"/>
+    <col min="970" max="970" width="11.5703125"/>
+    <col min="971" max="971" width="11.5703125"/>
+    <col min="972" max="972" width="11.5703125"/>
+    <col min="973" max="973" width="11.5703125"/>
+    <col min="974" max="974" width="11.5703125"/>
+    <col min="975" max="975" width="11.5703125"/>
+    <col min="976" max="976" width="11.5703125"/>
+    <col min="977" max="977" width="11.5703125"/>
+    <col min="978" max="978" width="11.5703125"/>
+    <col min="979" max="979" width="11.5703125"/>
+    <col min="980" max="980" width="11.5703125"/>
+    <col min="981" max="981" width="11.5703125"/>
+    <col min="982" max="982" width="11.5703125"/>
+    <col min="983" max="983" width="11.5703125"/>
+    <col min="984" max="984" width="11.5703125"/>
+    <col min="985" max="985" width="11.5703125"/>
+    <col min="986" max="986" width="11.5703125"/>
+    <col min="987" max="987" width="11.5703125"/>
+    <col min="988" max="988" width="11.5703125"/>
+    <col min="989" max="989" width="11.5703125"/>
+    <col min="990" max="990" width="11.5703125"/>
+    <col min="991" max="991" width="11.5703125"/>
+    <col min="992" max="992" width="11.5703125"/>
+    <col min="993" max="993" width="11.5703125"/>
+    <col min="994" max="994" width="11.5703125"/>
+    <col min="995" max="995" width="11.5703125"/>
+    <col min="996" max="996" width="11.5703125"/>
+    <col min="997" max="997" width="11.5703125"/>
+    <col min="998" max="998" width="11.5703125"/>
+    <col min="999" max="999" width="11.5703125"/>
+    <col min="1000" max="1000" width="11.5703125"/>
+    <col min="1001" max="1001" width="11.5703125"/>
+    <col min="1002" max="1002" width="11.5703125"/>
+    <col min="1003" max="1003" width="11.5703125"/>
+    <col min="1004" max="1004" width="11.5703125"/>
+    <col min="1005" max="1005" width="11.5703125"/>
+    <col min="1006" max="1006" width="11.5703125"/>
+    <col min="1007" max="1007" width="11.5703125"/>
+    <col min="1008" max="1008" width="11.5703125"/>
+    <col min="1009" max="1009" width="11.5703125"/>
+    <col min="1010" max="1010" width="11.5703125"/>
+    <col min="1011" max="1011" width="11.5703125"/>
+    <col min="1012" max="1012" width="11.5703125"/>
+    <col min="1013" max="1013" width="11.5703125"/>
+    <col min="1014" max="1014" width="11.5703125"/>
+    <col min="1015" max="1015" width="11.5703125"/>
+    <col min="1016" max="1016" width="11.5703125"/>
+    <col min="1017" max="1017" width="11.5703125"/>
+    <col min="1018" max="1018" width="11.5703125"/>
+    <col min="1019" max="1019" width="11.5703125"/>
+    <col min="1020" max="1020" width="11.5703125"/>
+    <col min="1021" max="1021" width="11.5703125"/>
+    <col min="1022" max="1022" width="11.5703125"/>
+    <col min="1023" max="1023" width="11.5703125"/>
+    <col min="1024" max="1024" width="11.5703125"/>
+    <col min="1025" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
@@ -2949,7 +4952,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="B4" s="32"/>
       <c r="C4" s="16" t="str">
         <f>'cost calculation'!C11</f>
@@ -2984,7 +4987,7 @@
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="B5" s="33" t="s">
         <v>102</v>
       </c>
@@ -3016,7 +5019,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="B6" s="33" t="s">
         <v>103</v>
       </c>
@@ -3045,11 +5048,11 @@
         <v>10</v>
       </c>
       <c r="L6" s="36">
-        <f t="shared" ref="L6:L11" si="0">K6-3</f>
+        <f>K6-3</f>
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="B7" s="33" t="s">
         <v>104</v>
       </c>
@@ -3078,11 +5081,11 @@
         <v>10</v>
       </c>
       <c r="L7" s="36">
-        <f t="shared" si="0"/>
+        <f>K7-3</f>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="B8" s="33" t="s">
         <v>19</v>
       </c>
@@ -3111,11 +5114,11 @@
         <v>8</v>
       </c>
       <c r="L8" s="36">
-        <f t="shared" si="0"/>
+        <f>K8-3</f>
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="B9" s="33" t="s">
         <v>105</v>
       </c>
@@ -3144,11 +5147,11 @@
         <v>8</v>
       </c>
       <c r="L9" s="36">
-        <f t="shared" si="0"/>
+        <f>K9-3</f>
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="B10" s="33" t="s">
         <v>106</v>
       </c>
@@ -3177,11 +5180,11 @@
         <v>3</v>
       </c>
       <c r="L10" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+        <f>K10-3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="B11" s="33" t="s">
         <v>107</v>
       </c>
@@ -3210,11 +5213,11 @@
         <v>4</v>
       </c>
       <c r="L11" s="36">
-        <f t="shared" si="0"/>
+        <f>K11-3</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="B12" s="33" t="s">
         <v>108</v>
       </c>
@@ -3246,7 +5249,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="B13" s="33" t="s">
         <v>109</v>
       </c>
@@ -3278,274 +5281,274 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="B15" s="37" t="s">
         <v>110</v>
       </c>
       <c r="C15" s="38">
-        <f t="shared" ref="C15:E22" si="1">$K6*C6/C$24</f>
+        <f>$K6*C6/C$24</f>
         <v>0.5</v>
       </c>
       <c r="D15" s="38">
-        <f t="shared" si="1"/>
+        <f>$K6*D6/D$24</f>
         <v>0.75</v>
       </c>
       <c r="E15" s="38">
-        <f t="shared" si="1"/>
+        <f>$K6*E6/E$24</f>
         <v>1</v>
       </c>
       <c r="F15" s="38">
-        <f t="shared" ref="F15:I22" si="2">$L6*F6/F$24</f>
-        <v>0.93333333333333335</v>
+        <f>$L6*F6/F$24</f>
+        <v>0.9333333333333</v>
       </c>
       <c r="G15" s="38">
-        <f t="shared" si="2"/>
-        <v>1.8666666666666667</v>
+        <f>$L6*G6/G$24</f>
+        <v>1.8666666666667</v>
       </c>
       <c r="H15" s="38">
-        <f t="shared" si="2"/>
+        <f>$L6*H6/H$24</f>
         <v>0.84</v>
       </c>
       <c r="I15" s="38">
-        <f t="shared" si="2"/>
+        <f>$L6*I6/I$24</f>
         <v>0.105</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="B16" s="37" t="s">
         <v>111</v>
       </c>
       <c r="C16" s="38">
-        <f t="shared" si="1"/>
+        <f>$K7*C7/C$24</f>
         <v>0.5</v>
       </c>
       <c r="D16" s="38">
-        <f t="shared" si="1"/>
+        <f>$K7*D7/D$24</f>
         <v>0.75</v>
       </c>
       <c r="E16" s="38">
-        <f t="shared" si="1"/>
+        <f>$K7*E7/E$24</f>
         <v>0.75</v>
       </c>
       <c r="F16" s="38">
-        <f t="shared" si="2"/>
+        <f>$L7*F7/F$24</f>
         <v>1.4</v>
       </c>
       <c r="G16" s="38">
-        <f t="shared" si="2"/>
+        <f>$L7*G7/G$24</f>
         <v>0</v>
       </c>
       <c r="H16" s="38">
-        <f t="shared" si="2"/>
+        <f>$L7*H7/H$24</f>
         <v>0.84</v>
       </c>
       <c r="I16" s="38">
-        <f t="shared" si="2"/>
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+        <f>$L7*I7/I$24</f>
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="B17" s="37" t="s">
         <v>112</v>
       </c>
       <c r="C17" s="38">
-        <f t="shared" si="1"/>
+        <f>$K8*C8/C$24</f>
         <v>0.4</v>
       </c>
       <c r="D17" s="38">
-        <f t="shared" si="1"/>
+        <f>$K8*D8/D$24</f>
         <v>0.6</v>
       </c>
       <c r="E17" s="38">
-        <f t="shared" si="1"/>
+        <f>$K8*E8/E$24</f>
         <v>0.6</v>
       </c>
       <c r="F17" s="38">
-        <f t="shared" si="2"/>
+        <f>$L8*F8/F$24</f>
         <v>1</v>
       </c>
       <c r="G17" s="38">
-        <f t="shared" si="2"/>
-        <v>1.3333333333333333</v>
+        <f>$L8*G8/G$24</f>
+        <v>1.3333333333333</v>
       </c>
       <c r="H17" s="38">
-        <f t="shared" si="2"/>
+        <f>$L8*H8/H$24</f>
         <v>0.6</v>
       </c>
       <c r="I17" s="38">
-        <f t="shared" si="2"/>
+        <f>$L8*I8/I$24</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="B18" s="37" t="s">
         <v>113</v>
       </c>
       <c r="C18" s="38">
-        <f t="shared" si="1"/>
+        <f>$K9*C9/C$24</f>
         <v>0.4</v>
       </c>
       <c r="D18" s="38">
-        <f t="shared" si="1"/>
+        <f>$K9*D9/D$24</f>
         <v>0.8</v>
       </c>
       <c r="E18" s="38">
-        <f t="shared" si="1"/>
+        <f>$K9*E9/E$24</f>
         <v>0.8</v>
       </c>
       <c r="F18" s="38">
-        <f t="shared" si="2"/>
+        <f>$L9*F9/F$24</f>
         <v>1</v>
       </c>
       <c r="G18" s="38">
-        <f t="shared" si="2"/>
+        <f>$L9*G9/G$24</f>
         <v>1</v>
       </c>
       <c r="H18" s="38">
-        <f t="shared" si="2"/>
+        <f>$L9*H9/H$24</f>
         <v>0.8</v>
       </c>
       <c r="I18" s="38">
-        <f t="shared" si="2"/>
+        <f>$L9*I9/I$24</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="B19" s="37" t="s">
         <v>114</v>
       </c>
       <c r="C19" s="38">
-        <f t="shared" si="1"/>
-        <v>3.7499999999999999E-2</v>
+        <f>$K10*C10/C$24</f>
+        <v>0.0375</v>
       </c>
       <c r="D19" s="38">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <f>$K10*D10/D$24</f>
+        <v>0.075</v>
       </c>
       <c r="E19" s="38">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <f>$K10*E10/E$24</f>
+        <v>0.075</v>
       </c>
       <c r="F19" s="38">
-        <f t="shared" si="2"/>
+        <f>$L10*F10/F$24</f>
         <v>0</v>
       </c>
       <c r="G19" s="38">
-        <f t="shared" si="2"/>
+        <f>$L10*G10/G$24</f>
         <v>0</v>
       </c>
       <c r="H19" s="38">
-        <f t="shared" si="2"/>
+        <f>$L10*H10/H$24</f>
         <v>0</v>
       </c>
       <c r="I19" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+        <f>$L10*I10/I$24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="B20" s="37" t="s">
         <v>115</v>
       </c>
       <c r="C20" s="38">
-        <f t="shared" si="1"/>
+        <f>$K11*C11/C$24</f>
         <v>0.15</v>
       </c>
       <c r="D20" s="38">
-        <f t="shared" si="1"/>
+        <f>$K11*D11/D$24</f>
         <v>0.3</v>
       </c>
       <c r="E20" s="38">
-        <f t="shared" si="1"/>
+        <f>$K11*E11/E$24</f>
         <v>0.3</v>
       </c>
       <c r="F20" s="38">
-        <f t="shared" si="2"/>
+        <f>$L11*F11/F$24</f>
         <v>0.2</v>
       </c>
       <c r="G20" s="38">
-        <f t="shared" si="2"/>
-        <v>0.26666666666666666</v>
+        <f>$L11*G11/G$24</f>
+        <v>0.2666666666667</v>
       </c>
       <c r="H20" s="38">
-        <f t="shared" si="2"/>
+        <f>$L11*H11/H$24</f>
         <v>0.08</v>
       </c>
       <c r="I20" s="38">
-        <f t="shared" si="2"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+        <f>$L11*I11/I$24</f>
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="B21" s="37" t="s">
         <v>116</v>
       </c>
       <c r="C21" s="38">
-        <f t="shared" si="1"/>
-        <v>1.2500000000000001E-2</v>
+        <f>$K12*C12/C$24</f>
+        <v>0.0125</v>
       </c>
       <c r="D21" s="38">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-2</v>
+        <f>$K12*D12/D$24</f>
+        <v>0.025</v>
       </c>
       <c r="E21" s="38">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-2</v>
+        <f>$K12*E12/E$24</f>
+        <v>0.025</v>
       </c>
       <c r="F21" s="38">
-        <f t="shared" si="2"/>
-        <v>3.3333333333333333E-2</v>
+        <f>$L12*F12/F$24</f>
+        <v>0.0333333333333</v>
       </c>
       <c r="G21" s="38">
-        <f t="shared" si="2"/>
-        <v>3.3333333333333333E-2</v>
+        <f>$L12*G12/G$24</f>
+        <v>0.0333333333333</v>
       </c>
       <c r="H21" s="38">
-        <f t="shared" si="2"/>
+        <f>$L12*H12/H$24</f>
         <v>0.02</v>
       </c>
       <c r="I21" s="38">
-        <f t="shared" si="2"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+        <f>$L12*I12/I$24</f>
+        <v>0.0075</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="B22" s="37" t="s">
         <v>117</v>
       </c>
       <c r="C22" s="38">
-        <f t="shared" si="1"/>
+        <f>$K13*C13/C$24</f>
         <v>0.1</v>
       </c>
       <c r="D22" s="38">
-        <f t="shared" si="1"/>
-        <v>0.17499999999999999</v>
+        <f>$K13*D13/D$24</f>
+        <v>0.175</v>
       </c>
       <c r="E22" s="38">
-        <f t="shared" si="1"/>
-        <v>0.17499999999999999</v>
+        <f>$K13*E13/E$24</f>
+        <v>0.175</v>
       </c>
       <c r="F22" s="38">
-        <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <f>$L13*F13/F$24</f>
+        <v>0.1666666666667</v>
       </c>
       <c r="G22" s="38">
-        <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <f>$L13*G13/G$24</f>
+        <v>0.1666666666667</v>
       </c>
       <c r="H22" s="38">
-        <f t="shared" si="2"/>
-        <v>0.14000000000000001</v>
+        <f>$L13*H13/H$24</f>
+        <v>0.14</v>
       </c>
       <c r="I22" s="38">
-        <f t="shared" si="2"/>
+        <f>$L13*I13/I$24</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="B24" s="20" t="s">
         <v>118</v>
       </c>
@@ -3578,60 +5581,60 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="C26" s="38">
-        <f t="shared" ref="C26:I26" si="3">SUM(C15:C22)</f>
-        <v>2.0999999999999996</v>
+        <f>SUM(C15:C22)</f>
+        <v>2.1</v>
       </c>
       <c r="D26" s="38">
-        <f t="shared" si="3"/>
-        <v>3.4750000000000001</v>
+        <f>SUM(D15:D22)</f>
+        <v>3.475</v>
       </c>
       <c r="E26" s="38">
-        <f t="shared" si="3"/>
-        <v>3.7250000000000001</v>
+        <f>SUM(E15:E22)</f>
+        <v>3.725</v>
       </c>
       <c r="F26" s="38">
-        <f t="shared" si="3"/>
-        <v>4.7333333333333334</v>
+        <f>SUM(F15:F22)</f>
+        <v>4.7333333333333</v>
       </c>
       <c r="G26" s="38">
-        <f t="shared" si="3"/>
-        <v>4.666666666666667</v>
+        <f>SUM(G15:G22)</f>
+        <v>4.6666666666667</v>
       </c>
       <c r="H26" s="38">
-        <f t="shared" si="3"/>
-        <v>3.3200000000000003</v>
+        <f>SUM(H15:H22)</f>
+        <v>3.32</v>
       </c>
       <c r="I26" s="38">
-        <f t="shared" si="3"/>
-        <v>0.38750000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+        <f>SUM(I15:I22)</f>
+        <v>0.3875</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="C27">
         <f>'cost calculation'!$E11*'Characteristic analysis'!C26</f>
-        <v>2.0999999999999996</v>
+        <v>2.1</v>
       </c>
       <c r="D27">
         <f>'cost calculation'!$E12*'Characteristic analysis'!D26</f>
-        <v>3.4750000000000001</v>
+        <v>3.475</v>
       </c>
       <c r="E27">
         <f>'cost calculation'!$E13*'Characteristic analysis'!E26</f>
-        <v>11.175000000000001</v>
+        <v>11.175</v>
       </c>
       <c r="F27">
         <f>'cost calculation'!$E14*'Characteristic analysis'!F26</f>
-        <v>23.666666666666668</v>
+        <v>23.666666666667</v>
       </c>
       <c r="G27">
         <f>'cost calculation'!$E15*'Characteristic analysis'!G26</f>
-        <v>14</v>
+        <v>18.666666666667</v>
       </c>
       <c r="H27">
         <f>'cost calculation'!$E16*'Characteristic analysis'!H26</f>
-        <v>9.9600000000000009</v>
+        <v>9.96</v>
       </c>
       <c r="I27">
         <f>'cost calculation'!$E17*'Characteristic analysis'!I26</f>
@@ -3639,7 +5642,7 @@
       </c>
       <c r="J27" s="9">
         <f>SUM(C27:I27)</f>
-        <v>64.376666666666665</v>
+        <v>69.043333333333</v>
       </c>
     </row>
   </sheetData>
@@ -3719,7 +5722,7 @@
     <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="B3" s="9" t="s">
         <v>119</v>
       </c>
@@ -3739,7 +5742,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="B4" s="39" t="s">
         <v>125</v>
       </c>
@@ -3754,7 +5757,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="40">
-        <f t="shared" ref="F4:F17" si="0">E4*D4</f>
+        <f>E4*D4</f>
         <v>6.3</v>
       </c>
       <c r="G4" s="41">
@@ -3762,7 +5765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="B5" s="39" t="s">
         <v>126</v>
       </c>
@@ -3777,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="40">
-        <f t="shared" si="0"/>
+        <f>E5*D5</f>
         <v>0</v>
       </c>
       <c r="G5" s="41">
@@ -3785,22 +5788,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="B6" s="39" t="s">
         <v>127</v>
       </c>
       <c r="C6" s="40">
-        <v>8.9499999999999993</v>
+        <v>8.95</v>
       </c>
       <c r="D6" s="40">
         <f>C6/3</f>
-        <v>2.9833333333333329</v>
+        <v>2.9833333333333</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" s="40">
-        <f t="shared" si="0"/>
+        <f>E6*D6</f>
         <v>0</v>
       </c>
       <c r="G6" s="41">
@@ -3808,12 +5811,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="B7" s="39" t="s">
         <v>128</v>
       </c>
       <c r="C7" s="40">
-        <v>9.4499999999999993</v>
+        <v>9.45</v>
       </c>
       <c r="D7" s="40">
         <f>C7/3</f>
@@ -3823,15 +5826,15 @@
         <v>3</v>
       </c>
       <c r="F7" s="40">
-        <f t="shared" si="0"/>
-        <v>9.4499999999999993</v>
+        <f>E7*D7</f>
+        <v>9.45</v>
       </c>
       <c r="G7" s="41">
         <f>Tabelle4[[#This Row],[€ genutzt/Packung]]/Tabelle4[[#This Row],[€/Packung]]</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="B8" s="39" t="s">
         <v>129</v>
       </c>
@@ -3846,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="40">
-        <f t="shared" si="0"/>
+        <f>E8*D8</f>
         <v>0</v>
       </c>
       <c r="G8" s="41">
@@ -3854,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="B9" s="39" t="s">
         <v>130</v>
       </c>
@@ -3869,7 +5872,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="40">
-        <f t="shared" si="0"/>
+        <f>E9*D9</f>
         <v>10.36</v>
       </c>
       <c r="G9" s="41">
@@ -3877,22 +5880,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="B10" s="39" t="s">
         <v>131</v>
       </c>
       <c r="C10" s="40">
-        <v>35.200000000000003</v>
+        <v>35.2</v>
       </c>
       <c r="D10" s="40">
         <f>C10/20</f>
-        <v>1.7600000000000002</v>
+        <v>1.76</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" s="40">
-        <f t="shared" si="0"/>
+        <f>E10*D10</f>
         <v>0</v>
       </c>
       <c r="G10" s="41">
@@ -3900,7 +5903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="B11" s="39" t="s">
         <v>132</v>
       </c>
@@ -3915,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="40">
-        <f t="shared" si="0"/>
+        <f>E11*D11</f>
         <v>0</v>
       </c>
       <c r="G11" s="41">
@@ -3923,22 +5926,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="B12" s="39" t="s">
         <v>133</v>
       </c>
       <c r="C12" s="40">
-        <v>19.989999999999998</v>
+        <v>19.99</v>
       </c>
       <c r="D12" s="40">
         <f>C12/10</f>
-        <v>1.9989999999999999</v>
+        <v>1.999</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" s="40">
-        <f t="shared" si="0"/>
+        <f>E12*D12</f>
         <v>0</v>
       </c>
       <c r="G12" s="41">
@@ -3946,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="B13" s="39" t="s">
         <v>134</v>
       </c>
@@ -3961,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="40">
-        <f t="shared" si="0"/>
+        <f>E13*D13</f>
         <v>0</v>
       </c>
       <c r="G13" s="41">
@@ -3969,22 +5972,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="B14" s="39" t="s">
         <v>135</v>
       </c>
       <c r="C14" s="40">
-        <v>19.989999999999998</v>
+        <v>19.99</v>
       </c>
       <c r="D14" s="40">
         <f>C14/3</f>
-        <v>6.6633333333333331</v>
+        <v>6.6633333333333</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" s="40">
-        <f t="shared" si="0"/>
+        <f>E14*D14</f>
         <v>0</v>
       </c>
       <c r="G14" s="41">
@@ -3992,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="B15" s="39" t="s">
         <v>136</v>
       </c>
@@ -4001,13 +6004,13 @@
       </c>
       <c r="D15" s="40">
         <f>C15/2</f>
-        <v>5.9950000000000001</v>
+        <v>5.995</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" s="40">
-        <f t="shared" si="0"/>
+        <f>E15*D15</f>
         <v>0</v>
       </c>
       <c r="G15" s="41">
@@ -4015,22 +6018,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="B16" s="39" t="s">
         <v>137</v>
       </c>
       <c r="C16" s="40">
-        <v>19.989999999999998</v>
+        <v>19.99</v>
       </c>
       <c r="D16" s="40">
         <f>C16/20</f>
-        <v>0.99949999999999994</v>
+        <v>0.9995</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" s="40">
-        <f t="shared" si="0"/>
+        <f>E16*D16</f>
         <v>0</v>
       </c>
       <c r="G16" s="41">
@@ -4038,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="B17" s="39" t="s">
         <v>138</v>
       </c>
@@ -4047,27 +6050,27 @@
       </c>
       <c r="D17" s="40">
         <f>C17/10</f>
-        <v>2.2749999999999999</v>
+        <v>2.275</v>
       </c>
       <c r="E17">
         <v>12</v>
       </c>
       <c r="F17" s="40">
-        <f t="shared" si="0"/>
-        <v>27.299999999999997</v>
+        <f>E17*D17</f>
+        <v>27.3</v>
       </c>
       <c r="G17" s="41">
         <f>Tabelle4[[#This Row],[€ genutzt/Packung]]/Tabelle4[[#This Row],[€/Packung]]</f>
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="B18" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="42">
         <f>SUM(C4:C17)</f>
-        <v>217.15000000000003</v>
+        <v>217.15</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>139</v>

--- a/kai/btb/kai-warband_orks_n_squigs_n_goblins_n_boyz.xlsx
+++ b/kai/btb/kai-warband_orks_n_squigs_n_goblins_n_boyz.xlsx
@@ -1170,8 +1170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J20" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33" activeCellId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5642,7 +5642,7 @@
       </c>
       <c r="J27" s="9">
         <f>SUM(C27:I27)</f>
-        <v>69.043333333333</v>
+        <v>69.043333333334</v>
       </c>
     </row>
   </sheetData>
